--- a/data/Anmeldung_Landesmeisterschaft_2025.xlsx
+++ b/data/Anmeldung_Landesmeisterschaft_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoni2/PycharmProjects/unicycle_score_board/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CAB4A4-9271-CC40-884C-86F6B0182ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886013FA-B2EC-2B4A-B464-4B449CD8A876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27300" windowHeight="14200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>Freestyle Landesmeisterschaft von SH &amp; HH</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>Gravity Shift</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2041,264 +2044,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2323,6 +2068,264 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2708,10 +2711,10 @@
       <c r="A4" s="112"/>
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="182"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -2733,10 +2736,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2855,8 +2858,8 @@
     <row r="10" spans="1:21" ht="16">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="107"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4993,7 +4996,7 @@
   <dimension ref="A1:AD114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="26"/>
@@ -6158,25 +6161,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="35.25" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="185"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="25"/>
@@ -6192,10 +6195,10 @@
       <c r="AD1" s="27"/>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="174"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
@@ -6224,34 +6227,34 @@
       <c r="AD2" s="29"/>
     </row>
     <row r="3" spans="1:30" ht="42" customHeight="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="232" t="s">
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="233"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="229" t="s">
+      <c r="I3" s="212"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="226" t="s">
+      <c r="L3" s="209"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="30"/>
       <c r="S3" s="24"/>
@@ -6268,55 +6271,55 @@
       <c r="AD3" s="29"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="235" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="207" t="s">
+      <c r="F4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="220" t="s">
+      <c r="H4" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="188" t="s">
+      <c r="I4" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="222" t="s">
+      <c r="K4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="190" t="s">
+      <c r="L4" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="194" t="s">
+      <c r="M4" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="224" t="s">
+      <c r="N4" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="196" t="s">
+      <c r="O4" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="186" t="s">
+      <c r="P4" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="213" t="s">
+      <c r="Q4" s="192" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="30"/>
@@ -6334,25 +6337,25 @@
       <c r="AD4" s="29"/>
     </row>
     <row r="5" spans="1:30" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="10">
         <v>45779</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="214"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="193"/>
       <c r="R5" s="30"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
@@ -6492,10 +6495,10 @@
       <c r="AD7" s="33"/>
     </row>
     <row r="8" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="258">
+      <c r="B8" s="178">
         <v>37460</v>
       </c>
       <c r="C8" s="57">
@@ -6511,7 +6514,7 @@
       <c r="F8" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="261" t="s">
+      <c r="G8" s="181" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="149"/>
@@ -6546,10 +6549,10 @@
       <c r="AD8" s="29"/>
     </row>
     <row r="9" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="260" t="s">
+      <c r="A9" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="258">
+      <c r="B9" s="178">
         <v>38296</v>
       </c>
       <c r="C9" s="65">
@@ -6562,10 +6565,10 @@
       <c r="E9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="261" t="s">
+      <c r="F9" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="261" t="s">
+      <c r="G9" s="181" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="68"/>
@@ -6600,10 +6603,10 @@
       <c r="AD9" s="29"/>
     </row>
     <row r="10" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="260" t="s">
+      <c r="A10" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="258">
+      <c r="B10" s="178">
         <v>37695</v>
       </c>
       <c r="C10" s="65">
@@ -6619,10 +6622,10 @@
       <c r="H10" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="262" t="s">
+      <c r="I10" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="262" t="s">
+      <c r="J10" s="182" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="70"/>
@@ -6654,10 +6657,10 @@
       <c r="AD10" s="29"/>
     </row>
     <row r="11" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="258">
+      <c r="B11" s="178">
         <v>37509</v>
       </c>
       <c r="C11" s="65">
@@ -6673,10 +6676,10 @@
       <c r="H11" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="262" t="s">
+      <c r="I11" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="262" t="s">
+      <c r="J11" s="182" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="70"/>
@@ -6708,10 +6711,10 @@
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A12" s="260" t="s">
+      <c r="A12" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="258">
+      <c r="B12" s="178">
         <v>38504</v>
       </c>
       <c r="C12" s="65">
@@ -6730,10 +6733,10 @@
       <c r="K12" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="263" t="s">
+      <c r="L12" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="264" t="s">
+      <c r="M12" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N12" s="149" t="s">
@@ -6762,10 +6765,10 @@
       <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="260" t="s">
+      <c r="A13" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="258">
+      <c r="B13" s="178">
         <v>38401</v>
       </c>
       <c r="C13" s="65">
@@ -6784,10 +6787,10 @@
       <c r="K13" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="263" t="s">
+      <c r="L13" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="264" t="s">
+      <c r="M13" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="149" t="s">
@@ -6816,10 +6819,10 @@
       <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="260" t="s">
+      <c r="A14" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="258">
+      <c r="B14" s="178">
         <v>38330</v>
       </c>
       <c r="C14" s="65">
@@ -6838,10 +6841,10 @@
       <c r="K14" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="263" t="s">
+      <c r="L14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="264" t="s">
+      <c r="M14" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N14" s="72"/>
@@ -6866,10 +6869,10 @@
       <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="260" t="s">
+      <c r="A15" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="258">
+      <c r="B15" s="178">
         <v>37921</v>
       </c>
       <c r="C15" s="65">
@@ -6888,10 +6891,10 @@
       <c r="K15" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="263" t="s">
+      <c r="L15" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="264" t="s">
+      <c r="M15" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="72"/>
@@ -7018,7 +7021,9 @@
       <c r="R18" s="28"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="U18" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="V18" s="23"/>
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
@@ -8450,10 +8455,10 @@
       <c r="L56" s="140"/>
       <c r="M56" s="140"/>
       <c r="N56" s="139"/>
-      <c r="O56" s="211" t="s">
+      <c r="O56" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="P56" s="212"/>
+      <c r="P56" s="191"/>
       <c r="Q56" s="170">
         <f>SUM(Q8:Q55)</f>
         <v>92</v>
@@ -10318,16 +10323,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="I4:I5"/>
@@ -10342,6 +10337,16 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Diese Spalte bitte nicht ausfüllen" prompt="Diese Spalte bitte nicht ausfüllen" sqref="C6:C55" xr:uid="{31B8AB7E-14F6-4C46-925A-C2EA34D6270C}">
@@ -10399,26 +10404,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="33.5" customHeight="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
@@ -10489,26 +10494,26 @@
       <c r="AP2" s="11"/>
     </row>
     <row r="3" spans="1:42" ht="52.5" customHeight="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
       <c r="S3" s="123"/>
       <c r="T3" s="121"/>
       <c r="U3" s="121"/>
@@ -10516,20 +10521,20 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="238"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="245"/>
+      <c r="AE3" s="245"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="245"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="245"/>
+      <c r="AJ3" s="245"/>
+      <c r="AK3" s="245"/>
+      <c r="AL3" s="245"/>
+      <c r="AM3" s="245"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="11"/>
       <c r="AP3" s="11"/>
@@ -10539,26 +10544,26 @@
       <c r="B4" s="165"/>
       <c r="C4" s="166"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="250" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="252" t="s">
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="253"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="260"/>
       <c r="S4" s="123"/>
       <c r="T4" s="121"/>
       <c r="U4" s="121"/>
@@ -10585,16 +10590,16 @@
       <c r="AP4" s="11"/>
     </row>
     <row r="5" spans="1:42" ht="16">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="252" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="245" t="s">
+      <c r="D5" s="252" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="176" t="s">
@@ -10615,22 +10620,22 @@
       <c r="J5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="246" t="s">
+      <c r="K5" s="253" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="247"/>
-      <c r="M5" s="248" t="s">
+      <c r="L5" s="254"/>
+      <c r="M5" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="248"/>
-      <c r="O5" s="235" t="s">
+      <c r="N5" s="255"/>
+      <c r="O5" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="236" t="s">
+      <c r="P5" s="242"/>
+      <c r="Q5" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="237"/>
+      <c r="R5" s="244"/>
       <c r="S5" s="122"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -10657,12 +10662,12 @@
       <c r="AP5" s="11"/>
     </row>
     <row r="6" spans="1:42" ht="17" thickBot="1">
-      <c r="A6" s="244"/>
-      <c r="B6" s="244"/>
+      <c r="A6" s="251"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="53">
         <v>45779</v>
       </c>
-      <c r="D6" s="244"/>
+      <c r="D6" s="251"/>
       <c r="E6" s="80" t="s">
         <v>62</v>
       </c>
@@ -11353,12 +11358,12 @@
     <row r="4" spans="1:22" ht="31">
       <c r="A4" s="111"/>
       <c r="B4" s="112"/>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="257"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="11"/>
@@ -11380,10 +11385,10 @@
       <c r="A5" s="117"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -11410,10 +11415,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="103"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="254" t="s">
+      <c r="D7" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="255"/>
+      <c r="E7" s="262"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>

--- a/data/Anmeldung_Landesmeisterschaft_2025.xlsx
+++ b/data/Anmeldung_Landesmeisterschaft_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoni2/PycharmProjects/unicycle_score_board/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\3D Objects\MSc 5\Practical Python Development\unicycle_score_board\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CAB4A4-9271-CC40-884C-86F6B0182ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9EC75-52DF-463B-A95C-86C3BE3AF2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27300" windowHeight="14200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allg. Daten" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Freestyle Landesmeisterschaft von SH &amp; HH</t>
   </si>
@@ -2041,264 +2041,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2324,10 +2066,268 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{8833020A-0EEF-4B2A-A583-D03CF5D266B2}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2648,10 +2648,10 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="63.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2708,10 +2708,10 @@
       <c r="A4" s="112"/>
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="182"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -2733,10 +2733,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2754,7 +2754,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="17" thickBot="1">
+    <row r="6" spans="1:21" ht="16" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -2777,7 +2777,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="17" thickBot="1">
+    <row r="7" spans="1:21" ht="16" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="16"/>
@@ -2802,7 +2802,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="17" thickBot="1">
+    <row r="8" spans="1:21" ht="16" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="16"/>
@@ -2827,7 +2827,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="17" thickBot="1">
+    <row r="9" spans="1:21" ht="16" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -2852,11 +2852,11 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="16">
+    <row r="10" spans="1:21" ht="15.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="107"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2875,7 +2875,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="16">
+    <row r="11" spans="1:21" ht="15.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="14"/>
@@ -2902,7 +2902,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="16">
+    <row r="12" spans="1:21" ht="15.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="14"/>
@@ -2927,7 +2927,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="16">
+    <row r="13" spans="1:21" ht="15.5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="14"/>
@@ -2954,7 +2954,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="16">
+    <row r="14" spans="1:21" ht="15.5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
@@ -2977,7 +2977,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="16">
+    <row r="15" spans="1:21" ht="15.5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="14"/>
@@ -3004,7 +3004,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="16">
+    <row r="16" spans="1:21" ht="15.5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="14"/>
@@ -3029,7 +3029,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="16">
+    <row r="17" spans="1:21" ht="15.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="14"/>
@@ -3079,7 +3079,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="16">
+    <row r="19" spans="1:21" ht="15.5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="19"/>
@@ -4992,1191 +4992,1191 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="59" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="45" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="35.6328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.36328125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.6328125" style="2" customWidth="1"/>
     <col min="21" max="21" width="5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="1" customWidth="1"/>
-    <col min="24" max="255" width="11.33203125" style="1"/>
-    <col min="256" max="256" width="15.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.36328125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.6328125" style="1" customWidth="1"/>
+    <col min="24" max="255" width="11.36328125" style="1"/>
+    <col min="256" max="256" width="15.1796875" style="1" customWidth="1"/>
     <col min="257" max="257" width="13" style="1" customWidth="1"/>
-    <col min="258" max="258" width="10.33203125" style="1" customWidth="1"/>
-    <col min="259" max="260" width="3.1640625" style="1" customWidth="1"/>
-    <col min="261" max="266" width="10.33203125" style="1" customWidth="1"/>
-    <col min="267" max="268" width="14.33203125" style="1" customWidth="1"/>
-    <col min="269" max="269" width="6.6640625" style="1" customWidth="1"/>
-    <col min="270" max="270" width="5.1640625" style="1" customWidth="1"/>
-    <col min="271" max="271" width="4.6640625" style="1" customWidth="1"/>
-    <col min="272" max="272" width="3.6640625" style="1" customWidth="1"/>
-    <col min="273" max="273" width="4.6640625" style="1" customWidth="1"/>
-    <col min="274" max="274" width="6.6640625" style="1" customWidth="1"/>
-    <col min="275" max="275" width="6.33203125" style="1" customWidth="1"/>
-    <col min="276" max="276" width="4.6640625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="10.36328125" style="1" customWidth="1"/>
+    <col min="259" max="260" width="3.1796875" style="1" customWidth="1"/>
+    <col min="261" max="266" width="10.36328125" style="1" customWidth="1"/>
+    <col min="267" max="268" width="14.36328125" style="1" customWidth="1"/>
+    <col min="269" max="269" width="6.6328125" style="1" customWidth="1"/>
+    <col min="270" max="270" width="5.1796875" style="1" customWidth="1"/>
+    <col min="271" max="271" width="4.6328125" style="1" customWidth="1"/>
+    <col min="272" max="272" width="3.6328125" style="1" customWidth="1"/>
+    <col min="273" max="273" width="4.6328125" style="1" customWidth="1"/>
+    <col min="274" max="274" width="6.6328125" style="1" customWidth="1"/>
+    <col min="275" max="275" width="6.36328125" style="1" customWidth="1"/>
+    <col min="276" max="276" width="4.6328125" style="1" customWidth="1"/>
     <col min="277" max="277" width="5" style="1" customWidth="1"/>
-    <col min="278" max="278" width="4.33203125" style="1" customWidth="1"/>
-    <col min="279" max="279" width="5.6640625" style="1" customWidth="1"/>
-    <col min="280" max="511" width="11.33203125" style="1"/>
-    <col min="512" max="512" width="15.1640625" style="1" customWidth="1"/>
+    <col min="278" max="278" width="4.36328125" style="1" customWidth="1"/>
+    <col min="279" max="279" width="5.6328125" style="1" customWidth="1"/>
+    <col min="280" max="511" width="11.36328125" style="1"/>
+    <col min="512" max="512" width="15.1796875" style="1" customWidth="1"/>
     <col min="513" max="513" width="13" style="1" customWidth="1"/>
-    <col min="514" max="514" width="10.33203125" style="1" customWidth="1"/>
-    <col min="515" max="516" width="3.1640625" style="1" customWidth="1"/>
-    <col min="517" max="522" width="10.33203125" style="1" customWidth="1"/>
-    <col min="523" max="524" width="14.33203125" style="1" customWidth="1"/>
-    <col min="525" max="525" width="6.6640625" style="1" customWidth="1"/>
-    <col min="526" max="526" width="5.1640625" style="1" customWidth="1"/>
-    <col min="527" max="527" width="4.6640625" style="1" customWidth="1"/>
-    <col min="528" max="528" width="3.6640625" style="1" customWidth="1"/>
-    <col min="529" max="529" width="4.6640625" style="1" customWidth="1"/>
-    <col min="530" max="530" width="6.6640625" style="1" customWidth="1"/>
-    <col min="531" max="531" width="6.33203125" style="1" customWidth="1"/>
-    <col min="532" max="532" width="4.6640625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="10.36328125" style="1" customWidth="1"/>
+    <col min="515" max="516" width="3.1796875" style="1" customWidth="1"/>
+    <col min="517" max="522" width="10.36328125" style="1" customWidth="1"/>
+    <col min="523" max="524" width="14.36328125" style="1" customWidth="1"/>
+    <col min="525" max="525" width="6.6328125" style="1" customWidth="1"/>
+    <col min="526" max="526" width="5.1796875" style="1" customWidth="1"/>
+    <col min="527" max="527" width="4.6328125" style="1" customWidth="1"/>
+    <col min="528" max="528" width="3.6328125" style="1" customWidth="1"/>
+    <col min="529" max="529" width="4.6328125" style="1" customWidth="1"/>
+    <col min="530" max="530" width="6.6328125" style="1" customWidth="1"/>
+    <col min="531" max="531" width="6.36328125" style="1" customWidth="1"/>
+    <col min="532" max="532" width="4.6328125" style="1" customWidth="1"/>
     <col min="533" max="533" width="5" style="1" customWidth="1"/>
-    <col min="534" max="534" width="4.33203125" style="1" customWidth="1"/>
-    <col min="535" max="535" width="5.6640625" style="1" customWidth="1"/>
-    <col min="536" max="767" width="11.33203125" style="1"/>
-    <col min="768" max="768" width="15.1640625" style="1" customWidth="1"/>
+    <col min="534" max="534" width="4.36328125" style="1" customWidth="1"/>
+    <col min="535" max="535" width="5.6328125" style="1" customWidth="1"/>
+    <col min="536" max="767" width="11.36328125" style="1"/>
+    <col min="768" max="768" width="15.1796875" style="1" customWidth="1"/>
     <col min="769" max="769" width="13" style="1" customWidth="1"/>
-    <col min="770" max="770" width="10.33203125" style="1" customWidth="1"/>
-    <col min="771" max="772" width="3.1640625" style="1" customWidth="1"/>
-    <col min="773" max="778" width="10.33203125" style="1" customWidth="1"/>
-    <col min="779" max="780" width="14.33203125" style="1" customWidth="1"/>
-    <col min="781" max="781" width="6.6640625" style="1" customWidth="1"/>
-    <col min="782" max="782" width="5.1640625" style="1" customWidth="1"/>
-    <col min="783" max="783" width="4.6640625" style="1" customWidth="1"/>
-    <col min="784" max="784" width="3.6640625" style="1" customWidth="1"/>
-    <col min="785" max="785" width="4.6640625" style="1" customWidth="1"/>
-    <col min="786" max="786" width="6.6640625" style="1" customWidth="1"/>
-    <col min="787" max="787" width="6.33203125" style="1" customWidth="1"/>
-    <col min="788" max="788" width="4.6640625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="10.36328125" style="1" customWidth="1"/>
+    <col min="771" max="772" width="3.1796875" style="1" customWidth="1"/>
+    <col min="773" max="778" width="10.36328125" style="1" customWidth="1"/>
+    <col min="779" max="780" width="14.36328125" style="1" customWidth="1"/>
+    <col min="781" max="781" width="6.6328125" style="1" customWidth="1"/>
+    <col min="782" max="782" width="5.1796875" style="1" customWidth="1"/>
+    <col min="783" max="783" width="4.6328125" style="1" customWidth="1"/>
+    <col min="784" max="784" width="3.6328125" style="1" customWidth="1"/>
+    <col min="785" max="785" width="4.6328125" style="1" customWidth="1"/>
+    <col min="786" max="786" width="6.6328125" style="1" customWidth="1"/>
+    <col min="787" max="787" width="6.36328125" style="1" customWidth="1"/>
+    <col min="788" max="788" width="4.6328125" style="1" customWidth="1"/>
     <col min="789" max="789" width="5" style="1" customWidth="1"/>
-    <col min="790" max="790" width="4.33203125" style="1" customWidth="1"/>
-    <col min="791" max="791" width="5.6640625" style="1" customWidth="1"/>
-    <col min="792" max="1023" width="11.33203125" style="1"/>
-    <col min="1024" max="1024" width="15.1640625" style="1" customWidth="1"/>
+    <col min="790" max="790" width="4.36328125" style="1" customWidth="1"/>
+    <col min="791" max="791" width="5.6328125" style="1" customWidth="1"/>
+    <col min="792" max="1023" width="11.36328125" style="1"/>
+    <col min="1024" max="1024" width="15.1796875" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="13" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1027" max="1028" width="3.1640625" style="1" customWidth="1"/>
-    <col min="1029" max="1034" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1035" max="1036" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="5.1640625" style="1" customWidth="1"/>
-    <col min="1039" max="1039" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1041" max="1041" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="6.33203125" style="1" customWidth="1"/>
-    <col min="1044" max="1044" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1027" max="1028" width="3.1796875" style="1" customWidth="1"/>
+    <col min="1029" max="1034" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1035" max="1036" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="5.1796875" style="1" customWidth="1"/>
+    <col min="1039" max="1039" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="3.6328125" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="6.36328125" style="1" customWidth="1"/>
+    <col min="1044" max="1044" width="4.6328125" style="1" customWidth="1"/>
     <col min="1045" max="1045" width="5" style="1" customWidth="1"/>
-    <col min="1046" max="1046" width="4.33203125" style="1" customWidth="1"/>
-    <col min="1047" max="1047" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1048" max="1279" width="11.33203125" style="1"/>
-    <col min="1280" max="1280" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1046" max="1046" width="4.36328125" style="1" customWidth="1"/>
+    <col min="1047" max="1047" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1048" max="1279" width="11.36328125" style="1"/>
+    <col min="1280" max="1280" width="15.1796875" style="1" customWidth="1"/>
     <col min="1281" max="1281" width="13" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1283" max="1284" width="3.1640625" style="1" customWidth="1"/>
-    <col min="1285" max="1290" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1291" max="1292" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="5.1640625" style="1" customWidth="1"/>
-    <col min="1295" max="1295" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1297" max="1297" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="6.33203125" style="1" customWidth="1"/>
-    <col min="1300" max="1300" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1283" max="1284" width="3.1796875" style="1" customWidth="1"/>
+    <col min="1285" max="1290" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1291" max="1292" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="5.1796875" style="1" customWidth="1"/>
+    <col min="1295" max="1295" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="3.6328125" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="6.36328125" style="1" customWidth="1"/>
+    <col min="1300" max="1300" width="4.6328125" style="1" customWidth="1"/>
     <col min="1301" max="1301" width="5" style="1" customWidth="1"/>
-    <col min="1302" max="1302" width="4.33203125" style="1" customWidth="1"/>
-    <col min="1303" max="1303" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1304" max="1535" width="11.33203125" style="1"/>
-    <col min="1536" max="1536" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1302" max="1302" width="4.36328125" style="1" customWidth="1"/>
+    <col min="1303" max="1303" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1304" max="1535" width="11.36328125" style="1"/>
+    <col min="1536" max="1536" width="15.1796875" style="1" customWidth="1"/>
     <col min="1537" max="1537" width="13" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1539" max="1540" width="3.1640625" style="1" customWidth="1"/>
-    <col min="1541" max="1546" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1547" max="1548" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="5.1640625" style="1" customWidth="1"/>
-    <col min="1551" max="1551" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1553" max="1553" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="6.33203125" style="1" customWidth="1"/>
-    <col min="1556" max="1556" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1539" max="1540" width="3.1796875" style="1" customWidth="1"/>
+    <col min="1541" max="1546" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1547" max="1548" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="5.1796875" style="1" customWidth="1"/>
+    <col min="1551" max="1551" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="3.6328125" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="6.36328125" style="1" customWidth="1"/>
+    <col min="1556" max="1556" width="4.6328125" style="1" customWidth="1"/>
     <col min="1557" max="1557" width="5" style="1" customWidth="1"/>
-    <col min="1558" max="1558" width="4.33203125" style="1" customWidth="1"/>
-    <col min="1559" max="1559" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1560" max="1791" width="11.33203125" style="1"/>
-    <col min="1792" max="1792" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1558" max="1558" width="4.36328125" style="1" customWidth="1"/>
+    <col min="1559" max="1559" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1560" max="1791" width="11.36328125" style="1"/>
+    <col min="1792" max="1792" width="15.1796875" style="1" customWidth="1"/>
     <col min="1793" max="1793" width="13" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1795" max="1796" width="3.1640625" style="1" customWidth="1"/>
-    <col min="1797" max="1802" width="10.33203125" style="1" customWidth="1"/>
-    <col min="1803" max="1804" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="5.1640625" style="1" customWidth="1"/>
-    <col min="1807" max="1807" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1809" max="1809" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="6.33203125" style="1" customWidth="1"/>
-    <col min="1812" max="1812" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1795" max="1796" width="3.1796875" style="1" customWidth="1"/>
+    <col min="1797" max="1802" width="10.36328125" style="1" customWidth="1"/>
+    <col min="1803" max="1804" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="5.1796875" style="1" customWidth="1"/>
+    <col min="1807" max="1807" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="3.6328125" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="4.6328125" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="6.6328125" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="6.36328125" style="1" customWidth="1"/>
+    <col min="1812" max="1812" width="4.6328125" style="1" customWidth="1"/>
     <col min="1813" max="1813" width="5" style="1" customWidth="1"/>
-    <col min="1814" max="1814" width="4.33203125" style="1" customWidth="1"/>
-    <col min="1815" max="1815" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1816" max="2047" width="11.33203125" style="1"/>
-    <col min="2048" max="2048" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1814" max="1814" width="4.36328125" style="1" customWidth="1"/>
+    <col min="1815" max="1815" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1816" max="2047" width="11.36328125" style="1"/>
+    <col min="2048" max="2048" width="15.1796875" style="1" customWidth="1"/>
     <col min="2049" max="2049" width="13" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2051" max="2052" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2053" max="2058" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2059" max="2060" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2063" max="2063" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2065" max="2065" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2068" max="2068" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2051" max="2052" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2053" max="2058" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2059" max="2060" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2063" max="2063" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="6.36328125" style="1" customWidth="1"/>
+    <col min="2068" max="2068" width="4.6328125" style="1" customWidth="1"/>
     <col min="2069" max="2069" width="5" style="1" customWidth="1"/>
-    <col min="2070" max="2070" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2071" max="2071" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2072" max="2303" width="11.33203125" style="1"/>
-    <col min="2304" max="2304" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2070" max="2070" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2071" max="2071" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2072" max="2303" width="11.36328125" style="1"/>
+    <col min="2304" max="2304" width="15.1796875" style="1" customWidth="1"/>
     <col min="2305" max="2305" width="13" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2307" max="2308" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2309" max="2314" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2315" max="2316" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2319" max="2319" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2321" max="2321" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2324" max="2324" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2307" max="2308" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2309" max="2314" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2315" max="2316" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2319" max="2319" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="6.36328125" style="1" customWidth="1"/>
+    <col min="2324" max="2324" width="4.6328125" style="1" customWidth="1"/>
     <col min="2325" max="2325" width="5" style="1" customWidth="1"/>
-    <col min="2326" max="2326" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2327" max="2327" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2328" max="2559" width="11.33203125" style="1"/>
-    <col min="2560" max="2560" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2326" max="2326" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2327" max="2327" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2328" max="2559" width="11.36328125" style="1"/>
+    <col min="2560" max="2560" width="15.1796875" style="1" customWidth="1"/>
     <col min="2561" max="2561" width="13" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2563" max="2564" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2565" max="2570" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2571" max="2572" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2575" max="2575" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2577" max="2577" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2580" max="2580" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2563" max="2564" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2565" max="2570" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2571" max="2572" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2575" max="2575" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="6.36328125" style="1" customWidth="1"/>
+    <col min="2580" max="2580" width="4.6328125" style="1" customWidth="1"/>
     <col min="2581" max="2581" width="5" style="1" customWidth="1"/>
-    <col min="2582" max="2582" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2583" max="2583" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2584" max="2815" width="11.33203125" style="1"/>
-    <col min="2816" max="2816" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2582" max="2582" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2583" max="2583" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2584" max="2815" width="11.36328125" style="1"/>
+    <col min="2816" max="2816" width="15.1796875" style="1" customWidth="1"/>
     <col min="2817" max="2817" width="13" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2819" max="2820" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2821" max="2826" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2827" max="2828" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2831" max="2831" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2833" max="2833" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2836" max="2836" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2819" max="2820" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2821" max="2826" width="10.36328125" style="1" customWidth="1"/>
+    <col min="2827" max="2828" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2831" max="2831" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="4.6328125" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="6.36328125" style="1" customWidth="1"/>
+    <col min="2836" max="2836" width="4.6328125" style="1" customWidth="1"/>
     <col min="2837" max="2837" width="5" style="1" customWidth="1"/>
-    <col min="2838" max="2838" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2839" max="2839" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2840" max="3071" width="11.33203125" style="1"/>
-    <col min="3072" max="3072" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2838" max="2838" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2839" max="2839" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2840" max="3071" width="11.36328125" style="1"/>
+    <col min="3072" max="3072" width="15.1796875" style="1" customWidth="1"/>
     <col min="3073" max="3073" width="13" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3075" max="3076" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3077" max="3082" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3083" max="3084" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="5.1640625" style="1" customWidth="1"/>
-    <col min="3087" max="3087" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3089" max="3089" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3092" max="3092" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3075" max="3076" width="3.1796875" style="1" customWidth="1"/>
+    <col min="3077" max="3082" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3083" max="3084" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="5.1796875" style="1" customWidth="1"/>
+    <col min="3087" max="3087" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="3.6328125" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="6.36328125" style="1" customWidth="1"/>
+    <col min="3092" max="3092" width="4.6328125" style="1" customWidth="1"/>
     <col min="3093" max="3093" width="5" style="1" customWidth="1"/>
-    <col min="3094" max="3094" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3095" max="3095" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3096" max="3327" width="11.33203125" style="1"/>
-    <col min="3328" max="3328" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3094" max="3094" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3095" max="3095" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3096" max="3327" width="11.36328125" style="1"/>
+    <col min="3328" max="3328" width="15.1796875" style="1" customWidth="1"/>
     <col min="3329" max="3329" width="13" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3331" max="3332" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3333" max="3338" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3339" max="3340" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="5.1640625" style="1" customWidth="1"/>
-    <col min="3343" max="3343" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3345" max="3345" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3348" max="3348" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3331" max="3332" width="3.1796875" style="1" customWidth="1"/>
+    <col min="3333" max="3338" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3339" max="3340" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="5.1796875" style="1" customWidth="1"/>
+    <col min="3343" max="3343" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="3.6328125" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="6.36328125" style="1" customWidth="1"/>
+    <col min="3348" max="3348" width="4.6328125" style="1" customWidth="1"/>
     <col min="3349" max="3349" width="5" style="1" customWidth="1"/>
-    <col min="3350" max="3350" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3351" max="3351" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3352" max="3583" width="11.33203125" style="1"/>
-    <col min="3584" max="3584" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3350" max="3350" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3351" max="3351" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3352" max="3583" width="11.36328125" style="1"/>
+    <col min="3584" max="3584" width="15.1796875" style="1" customWidth="1"/>
     <col min="3585" max="3585" width="13" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3587" max="3588" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3589" max="3594" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3595" max="3596" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="5.1640625" style="1" customWidth="1"/>
-    <col min="3599" max="3599" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3601" max="3601" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3604" max="3604" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3587" max="3588" width="3.1796875" style="1" customWidth="1"/>
+    <col min="3589" max="3594" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3595" max="3596" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="5.1796875" style="1" customWidth="1"/>
+    <col min="3599" max="3599" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="3.6328125" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="6.36328125" style="1" customWidth="1"/>
+    <col min="3604" max="3604" width="4.6328125" style="1" customWidth="1"/>
     <col min="3605" max="3605" width="5" style="1" customWidth="1"/>
-    <col min="3606" max="3606" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3607" max="3607" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3608" max="3839" width="11.33203125" style="1"/>
-    <col min="3840" max="3840" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3606" max="3606" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3607" max="3607" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3608" max="3839" width="11.36328125" style="1"/>
+    <col min="3840" max="3840" width="15.1796875" style="1" customWidth="1"/>
     <col min="3841" max="3841" width="13" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3843" max="3844" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3845" max="3850" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3851" max="3852" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="5.1640625" style="1" customWidth="1"/>
-    <col min="3855" max="3855" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3857" max="3857" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3860" max="3860" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3843" max="3844" width="3.1796875" style="1" customWidth="1"/>
+    <col min="3845" max="3850" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3851" max="3852" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="5.1796875" style="1" customWidth="1"/>
+    <col min="3855" max="3855" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="3.6328125" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="6.6328125" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="6.36328125" style="1" customWidth="1"/>
+    <col min="3860" max="3860" width="4.6328125" style="1" customWidth="1"/>
     <col min="3861" max="3861" width="5" style="1" customWidth="1"/>
-    <col min="3862" max="3862" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3863" max="3863" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3864" max="4095" width="11.33203125" style="1"/>
-    <col min="4096" max="4096" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3862" max="3862" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3863" max="3863" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3864" max="4095" width="11.36328125" style="1"/>
+    <col min="4096" max="4096" width="15.1796875" style="1" customWidth="1"/>
     <col min="4097" max="4097" width="13" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4099" max="4100" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4101" max="4106" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4107" max="4108" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4111" max="4111" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4113" max="4113" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4116" max="4116" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4099" max="4100" width="3.1796875" style="1" customWidth="1"/>
+    <col min="4101" max="4106" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4107" max="4108" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="5.1796875" style="1" customWidth="1"/>
+    <col min="4111" max="4111" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="6.36328125" style="1" customWidth="1"/>
+    <col min="4116" max="4116" width="4.6328125" style="1" customWidth="1"/>
     <col min="4117" max="4117" width="5" style="1" customWidth="1"/>
-    <col min="4118" max="4118" width="4.33203125" style="1" customWidth="1"/>
-    <col min="4119" max="4119" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4120" max="4351" width="11.33203125" style="1"/>
-    <col min="4352" max="4352" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4118" max="4118" width="4.36328125" style="1" customWidth="1"/>
+    <col min="4119" max="4119" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4120" max="4351" width="11.36328125" style="1"/>
+    <col min="4352" max="4352" width="15.1796875" style="1" customWidth="1"/>
     <col min="4353" max="4353" width="13" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4355" max="4356" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4357" max="4362" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4363" max="4364" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4367" max="4367" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4369" max="4369" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4372" max="4372" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4355" max="4356" width="3.1796875" style="1" customWidth="1"/>
+    <col min="4357" max="4362" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4363" max="4364" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="5.1796875" style="1" customWidth="1"/>
+    <col min="4367" max="4367" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="6.36328125" style="1" customWidth="1"/>
+    <col min="4372" max="4372" width="4.6328125" style="1" customWidth="1"/>
     <col min="4373" max="4373" width="5" style="1" customWidth="1"/>
-    <col min="4374" max="4374" width="4.33203125" style="1" customWidth="1"/>
-    <col min="4375" max="4375" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4376" max="4607" width="11.33203125" style="1"/>
-    <col min="4608" max="4608" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4374" max="4374" width="4.36328125" style="1" customWidth="1"/>
+    <col min="4375" max="4375" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4376" max="4607" width="11.36328125" style="1"/>
+    <col min="4608" max="4608" width="15.1796875" style="1" customWidth="1"/>
     <col min="4609" max="4609" width="13" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4611" max="4612" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4613" max="4618" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4619" max="4620" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4623" max="4623" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4625" max="4625" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4628" max="4628" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4611" max="4612" width="3.1796875" style="1" customWidth="1"/>
+    <col min="4613" max="4618" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4619" max="4620" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="5.1796875" style="1" customWidth="1"/>
+    <col min="4623" max="4623" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="6.36328125" style="1" customWidth="1"/>
+    <col min="4628" max="4628" width="4.6328125" style="1" customWidth="1"/>
     <col min="4629" max="4629" width="5" style="1" customWidth="1"/>
-    <col min="4630" max="4630" width="4.33203125" style="1" customWidth="1"/>
-    <col min="4631" max="4631" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4632" max="4863" width="11.33203125" style="1"/>
-    <col min="4864" max="4864" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4630" max="4630" width="4.36328125" style="1" customWidth="1"/>
+    <col min="4631" max="4631" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4632" max="4863" width="11.36328125" style="1"/>
+    <col min="4864" max="4864" width="15.1796875" style="1" customWidth="1"/>
     <col min="4865" max="4865" width="13" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4867" max="4868" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4869" max="4874" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4875" max="4876" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4879" max="4879" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4881" max="4881" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4884" max="4884" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4867" max="4868" width="3.1796875" style="1" customWidth="1"/>
+    <col min="4869" max="4874" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4875" max="4876" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="5.1796875" style="1" customWidth="1"/>
+    <col min="4879" max="4879" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="4.6328125" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="6.36328125" style="1" customWidth="1"/>
+    <col min="4884" max="4884" width="4.6328125" style="1" customWidth="1"/>
     <col min="4885" max="4885" width="5" style="1" customWidth="1"/>
-    <col min="4886" max="4886" width="4.33203125" style="1" customWidth="1"/>
-    <col min="4887" max="4887" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4888" max="5119" width="11.33203125" style="1"/>
-    <col min="5120" max="5120" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4886" max="4886" width="4.36328125" style="1" customWidth="1"/>
+    <col min="4887" max="4887" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4888" max="5119" width="11.36328125" style="1"/>
+    <col min="5120" max="5120" width="15.1796875" style="1" customWidth="1"/>
     <col min="5121" max="5121" width="13" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5123" max="5124" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5125" max="5130" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5131" max="5132" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="5.1640625" style="1" customWidth="1"/>
-    <col min="5135" max="5135" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5137" max="5137" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="6.33203125" style="1" customWidth="1"/>
-    <col min="5140" max="5140" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5123" max="5124" width="3.1796875" style="1" customWidth="1"/>
+    <col min="5125" max="5130" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5131" max="5132" width="14.36328125" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="5.1796875" style="1" customWidth="1"/>
+    <col min="5135" max="5135" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="6.36328125" style="1" customWidth="1"/>
+    <col min="5140" max="5140" width="4.6328125" style="1" customWidth="1"/>
     <col min="5141" max="5141" width="5" style="1" customWidth="1"/>
-    <col min="5142" max="5142" width="4.33203125" style="1" customWidth="1"/>
-    <col min="5143" max="5143" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5144" max="5375" width="11.33203125" style="1"/>
-    <col min="5376" max="5376" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5142" max="5142" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5143" max="5143" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5144" max="5375" width="11.36328125" style="1"/>
+    <col min="5376" max="5376" width="15.1796875" style="1" customWidth="1"/>
     <col min="5377" max="5377" width="13" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5379" max="5380" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5381" max="5386" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5387" max="5388" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="5.1640625" style="1" customWidth="1"/>
-    <col min="5391" max="5391" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5393" max="5393" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="6.33203125" style="1" customWidth="1"/>
-    <col min="5396" max="5396" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5379" max="5380" width="3.1796875" style="1" customWidth="1"/>
+    <col min="5381" max="5386" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5387" max="5388" width="14.36328125" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="5.1796875" style="1" customWidth="1"/>
+    <col min="5391" max="5391" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="6.36328125" style="1" customWidth="1"/>
+    <col min="5396" max="5396" width="4.6328125" style="1" customWidth="1"/>
     <col min="5397" max="5397" width="5" style="1" customWidth="1"/>
-    <col min="5398" max="5398" width="4.33203125" style="1" customWidth="1"/>
-    <col min="5399" max="5399" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5400" max="5631" width="11.33203125" style="1"/>
-    <col min="5632" max="5632" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5398" max="5398" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5399" max="5399" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5400" max="5631" width="11.36328125" style="1"/>
+    <col min="5632" max="5632" width="15.1796875" style="1" customWidth="1"/>
     <col min="5633" max="5633" width="13" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5635" max="5636" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5637" max="5642" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5643" max="5644" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="5.1640625" style="1" customWidth="1"/>
-    <col min="5647" max="5647" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5649" max="5649" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="6.33203125" style="1" customWidth="1"/>
-    <col min="5652" max="5652" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5635" max="5636" width="3.1796875" style="1" customWidth="1"/>
+    <col min="5637" max="5642" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5643" max="5644" width="14.36328125" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="5.1796875" style="1" customWidth="1"/>
+    <col min="5647" max="5647" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="6.36328125" style="1" customWidth="1"/>
+    <col min="5652" max="5652" width="4.6328125" style="1" customWidth="1"/>
     <col min="5653" max="5653" width="5" style="1" customWidth="1"/>
-    <col min="5654" max="5654" width="4.33203125" style="1" customWidth="1"/>
-    <col min="5655" max="5655" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5656" max="5887" width="11.33203125" style="1"/>
-    <col min="5888" max="5888" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5654" max="5654" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5655" max="5655" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5656" max="5887" width="11.36328125" style="1"/>
+    <col min="5888" max="5888" width="15.1796875" style="1" customWidth="1"/>
     <col min="5889" max="5889" width="13" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5891" max="5892" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5893" max="5898" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5899" max="5900" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="5.1640625" style="1" customWidth="1"/>
-    <col min="5903" max="5903" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5905" max="5905" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="6.33203125" style="1" customWidth="1"/>
-    <col min="5908" max="5908" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5891" max="5892" width="3.1796875" style="1" customWidth="1"/>
+    <col min="5893" max="5898" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5899" max="5900" width="14.36328125" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="5.1796875" style="1" customWidth="1"/>
+    <col min="5903" max="5903" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="4.6328125" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="6.36328125" style="1" customWidth="1"/>
+    <col min="5908" max="5908" width="4.6328125" style="1" customWidth="1"/>
     <col min="5909" max="5909" width="5" style="1" customWidth="1"/>
-    <col min="5910" max="5910" width="4.33203125" style="1" customWidth="1"/>
-    <col min="5911" max="5911" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5912" max="6143" width="11.33203125" style="1"/>
-    <col min="6144" max="6144" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5910" max="5910" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5911" max="5911" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5912" max="6143" width="11.36328125" style="1"/>
+    <col min="6144" max="6144" width="15.1796875" style="1" customWidth="1"/>
     <col min="6145" max="6145" width="13" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6147" max="6148" width="3.1640625" style="1" customWidth="1"/>
-    <col min="6149" max="6154" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6155" max="6156" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="5.1640625" style="1" customWidth="1"/>
-    <col min="6159" max="6159" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6161" max="6161" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6164" max="6164" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6147" max="6148" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6149" max="6154" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6155" max="6156" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="5.1796875" style="1" customWidth="1"/>
+    <col min="6159" max="6159" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="6.36328125" style="1" customWidth="1"/>
+    <col min="6164" max="6164" width="4.6328125" style="1" customWidth="1"/>
     <col min="6165" max="6165" width="5" style="1" customWidth="1"/>
-    <col min="6166" max="6166" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6167" max="6167" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6168" max="6399" width="11.33203125" style="1"/>
-    <col min="6400" max="6400" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6166" max="6166" width="4.36328125" style="1" customWidth="1"/>
+    <col min="6167" max="6167" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6168" max="6399" width="11.36328125" style="1"/>
+    <col min="6400" max="6400" width="15.1796875" style="1" customWidth="1"/>
     <col min="6401" max="6401" width="13" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6403" max="6404" width="3.1640625" style="1" customWidth="1"/>
-    <col min="6405" max="6410" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6411" max="6412" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="5.1640625" style="1" customWidth="1"/>
-    <col min="6415" max="6415" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6417" max="6417" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6420" max="6420" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6403" max="6404" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6405" max="6410" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6411" max="6412" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="5.1796875" style="1" customWidth="1"/>
+    <col min="6415" max="6415" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="6.36328125" style="1" customWidth="1"/>
+    <col min="6420" max="6420" width="4.6328125" style="1" customWidth="1"/>
     <col min="6421" max="6421" width="5" style="1" customWidth="1"/>
-    <col min="6422" max="6422" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6423" max="6423" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6424" max="6655" width="11.33203125" style="1"/>
-    <col min="6656" max="6656" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6422" max="6422" width="4.36328125" style="1" customWidth="1"/>
+    <col min="6423" max="6423" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6424" max="6655" width="11.36328125" style="1"/>
+    <col min="6656" max="6656" width="15.1796875" style="1" customWidth="1"/>
     <col min="6657" max="6657" width="13" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6659" max="6660" width="3.1640625" style="1" customWidth="1"/>
-    <col min="6661" max="6666" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6667" max="6668" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="5.1640625" style="1" customWidth="1"/>
-    <col min="6671" max="6671" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6673" max="6673" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6676" max="6676" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6659" max="6660" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6661" max="6666" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6667" max="6668" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="5.1796875" style="1" customWidth="1"/>
+    <col min="6671" max="6671" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="6.36328125" style="1" customWidth="1"/>
+    <col min="6676" max="6676" width="4.6328125" style="1" customWidth="1"/>
     <col min="6677" max="6677" width="5" style="1" customWidth="1"/>
-    <col min="6678" max="6678" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6679" max="6679" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6680" max="6911" width="11.33203125" style="1"/>
-    <col min="6912" max="6912" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6678" max="6678" width="4.36328125" style="1" customWidth="1"/>
+    <col min="6679" max="6679" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6680" max="6911" width="11.36328125" style="1"/>
+    <col min="6912" max="6912" width="15.1796875" style="1" customWidth="1"/>
     <col min="6913" max="6913" width="13" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6915" max="6916" width="3.1640625" style="1" customWidth="1"/>
-    <col min="6917" max="6922" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6923" max="6924" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="5.1640625" style="1" customWidth="1"/>
-    <col min="6927" max="6927" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6929" max="6929" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6932" max="6932" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6915" max="6916" width="3.1796875" style="1" customWidth="1"/>
+    <col min="6917" max="6922" width="10.36328125" style="1" customWidth="1"/>
+    <col min="6923" max="6924" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="5.1796875" style="1" customWidth="1"/>
+    <col min="6927" max="6927" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="4.6328125" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="6.36328125" style="1" customWidth="1"/>
+    <col min="6932" max="6932" width="4.6328125" style="1" customWidth="1"/>
     <col min="6933" max="6933" width="5" style="1" customWidth="1"/>
-    <col min="6934" max="6934" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6935" max="6935" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6936" max="7167" width="11.33203125" style="1"/>
-    <col min="7168" max="7168" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6934" max="6934" width="4.36328125" style="1" customWidth="1"/>
+    <col min="6935" max="6935" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6936" max="7167" width="11.36328125" style="1"/>
+    <col min="7168" max="7168" width="15.1796875" style="1" customWidth="1"/>
     <col min="7169" max="7169" width="13" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7171" max="7172" width="3.1640625" style="1" customWidth="1"/>
-    <col min="7173" max="7178" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7179" max="7180" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7183" max="7183" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7185" max="7185" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="6.33203125" style="1" customWidth="1"/>
-    <col min="7188" max="7188" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7171" max="7172" width="3.1796875" style="1" customWidth="1"/>
+    <col min="7173" max="7178" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7179" max="7180" width="14.36328125" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="5.1796875" style="1" customWidth="1"/>
+    <col min="7183" max="7183" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="3.6328125" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="6.36328125" style="1" customWidth="1"/>
+    <col min="7188" max="7188" width="4.6328125" style="1" customWidth="1"/>
     <col min="7189" max="7189" width="5" style="1" customWidth="1"/>
-    <col min="7190" max="7190" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7191" max="7191" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7192" max="7423" width="11.33203125" style="1"/>
-    <col min="7424" max="7424" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7190" max="7190" width="4.36328125" style="1" customWidth="1"/>
+    <col min="7191" max="7191" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7192" max="7423" width="11.36328125" style="1"/>
+    <col min="7424" max="7424" width="15.1796875" style="1" customWidth="1"/>
     <col min="7425" max="7425" width="13" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7427" max="7428" width="3.1640625" style="1" customWidth="1"/>
-    <col min="7429" max="7434" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7435" max="7436" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7439" max="7439" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7441" max="7441" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="6.33203125" style="1" customWidth="1"/>
-    <col min="7444" max="7444" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7427" max="7428" width="3.1796875" style="1" customWidth="1"/>
+    <col min="7429" max="7434" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7435" max="7436" width="14.36328125" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="5.1796875" style="1" customWidth="1"/>
+    <col min="7439" max="7439" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="3.6328125" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="6.36328125" style="1" customWidth="1"/>
+    <col min="7444" max="7444" width="4.6328125" style="1" customWidth="1"/>
     <col min="7445" max="7445" width="5" style="1" customWidth="1"/>
-    <col min="7446" max="7446" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7447" max="7447" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7448" max="7679" width="11.33203125" style="1"/>
-    <col min="7680" max="7680" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7446" max="7446" width="4.36328125" style="1" customWidth="1"/>
+    <col min="7447" max="7447" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7448" max="7679" width="11.36328125" style="1"/>
+    <col min="7680" max="7680" width="15.1796875" style="1" customWidth="1"/>
     <col min="7681" max="7681" width="13" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7683" max="7684" width="3.1640625" style="1" customWidth="1"/>
-    <col min="7685" max="7690" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7691" max="7692" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7695" max="7695" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7697" max="7697" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="6.33203125" style="1" customWidth="1"/>
-    <col min="7700" max="7700" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7683" max="7684" width="3.1796875" style="1" customWidth="1"/>
+    <col min="7685" max="7690" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7691" max="7692" width="14.36328125" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="5.1796875" style="1" customWidth="1"/>
+    <col min="7695" max="7695" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="3.6328125" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="6.36328125" style="1" customWidth="1"/>
+    <col min="7700" max="7700" width="4.6328125" style="1" customWidth="1"/>
     <col min="7701" max="7701" width="5" style="1" customWidth="1"/>
-    <col min="7702" max="7702" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7703" max="7703" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7704" max="7935" width="11.33203125" style="1"/>
-    <col min="7936" max="7936" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7702" max="7702" width="4.36328125" style="1" customWidth="1"/>
+    <col min="7703" max="7703" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7704" max="7935" width="11.36328125" style="1"/>
+    <col min="7936" max="7936" width="15.1796875" style="1" customWidth="1"/>
     <col min="7937" max="7937" width="13" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7939" max="7940" width="3.1640625" style="1" customWidth="1"/>
-    <col min="7941" max="7946" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7947" max="7948" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7951" max="7951" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7953" max="7953" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="6.33203125" style="1" customWidth="1"/>
-    <col min="7956" max="7956" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7939" max="7940" width="3.1796875" style="1" customWidth="1"/>
+    <col min="7941" max="7946" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7947" max="7948" width="14.36328125" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="5.1796875" style="1" customWidth="1"/>
+    <col min="7951" max="7951" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="3.6328125" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="6.6328125" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="6.36328125" style="1" customWidth="1"/>
+    <col min="7956" max="7956" width="4.6328125" style="1" customWidth="1"/>
     <col min="7957" max="7957" width="5" style="1" customWidth="1"/>
-    <col min="7958" max="7958" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7959" max="7959" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7960" max="8191" width="11.33203125" style="1"/>
-    <col min="8192" max="8192" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7958" max="7958" width="4.36328125" style="1" customWidth="1"/>
+    <col min="7959" max="7959" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7960" max="8191" width="11.36328125" style="1"/>
+    <col min="8192" max="8192" width="15.1796875" style="1" customWidth="1"/>
     <col min="8193" max="8193" width="13" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8195" max="8196" width="3.1640625" style="1" customWidth="1"/>
-    <col min="8197" max="8202" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8203" max="8204" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="5.1640625" style="1" customWidth="1"/>
-    <col min="8207" max="8207" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8209" max="8209" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8212" max="8212" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8195" max="8196" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8197" max="8202" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8203" max="8204" width="14.36328125" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="5.1796875" style="1" customWidth="1"/>
+    <col min="8207" max="8207" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8212" max="8212" width="4.6328125" style="1" customWidth="1"/>
     <col min="8213" max="8213" width="5" style="1" customWidth="1"/>
-    <col min="8214" max="8214" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8215" max="8215" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8216" max="8447" width="11.33203125" style="1"/>
-    <col min="8448" max="8448" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8214" max="8214" width="4.36328125" style="1" customWidth="1"/>
+    <col min="8215" max="8215" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8216" max="8447" width="11.36328125" style="1"/>
+    <col min="8448" max="8448" width="15.1796875" style="1" customWidth="1"/>
     <col min="8449" max="8449" width="13" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8451" max="8452" width="3.1640625" style="1" customWidth="1"/>
-    <col min="8453" max="8458" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8459" max="8460" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="5.1640625" style="1" customWidth="1"/>
-    <col min="8463" max="8463" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8465" max="8465" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8468" max="8468" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8451" max="8452" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8453" max="8458" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8459" max="8460" width="14.36328125" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="5.1796875" style="1" customWidth="1"/>
+    <col min="8463" max="8463" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8468" max="8468" width="4.6328125" style="1" customWidth="1"/>
     <col min="8469" max="8469" width="5" style="1" customWidth="1"/>
-    <col min="8470" max="8470" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8471" max="8471" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8472" max="8703" width="11.33203125" style="1"/>
-    <col min="8704" max="8704" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8470" max="8470" width="4.36328125" style="1" customWidth="1"/>
+    <col min="8471" max="8471" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8472" max="8703" width="11.36328125" style="1"/>
+    <col min="8704" max="8704" width="15.1796875" style="1" customWidth="1"/>
     <col min="8705" max="8705" width="13" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8707" max="8708" width="3.1640625" style="1" customWidth="1"/>
-    <col min="8709" max="8714" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8715" max="8716" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="5.1640625" style="1" customWidth="1"/>
-    <col min="8719" max="8719" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8721" max="8721" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8724" max="8724" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8707" max="8708" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8709" max="8714" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8715" max="8716" width="14.36328125" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="5.1796875" style="1" customWidth="1"/>
+    <col min="8719" max="8719" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8724" max="8724" width="4.6328125" style="1" customWidth="1"/>
     <col min="8725" max="8725" width="5" style="1" customWidth="1"/>
-    <col min="8726" max="8726" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8727" max="8727" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8728" max="8959" width="11.33203125" style="1"/>
-    <col min="8960" max="8960" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8726" max="8726" width="4.36328125" style="1" customWidth="1"/>
+    <col min="8727" max="8727" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8728" max="8959" width="11.36328125" style="1"/>
+    <col min="8960" max="8960" width="15.1796875" style="1" customWidth="1"/>
     <col min="8961" max="8961" width="13" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8963" max="8964" width="3.1640625" style="1" customWidth="1"/>
-    <col min="8965" max="8970" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8971" max="8972" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="5.1640625" style="1" customWidth="1"/>
-    <col min="8975" max="8975" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8977" max="8977" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8980" max="8980" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8963" max="8964" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8965" max="8970" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8971" max="8972" width="14.36328125" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="5.1796875" style="1" customWidth="1"/>
+    <col min="8975" max="8975" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="4.6328125" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8980" max="8980" width="4.6328125" style="1" customWidth="1"/>
     <col min="8981" max="8981" width="5" style="1" customWidth="1"/>
-    <col min="8982" max="8982" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8983" max="8983" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8984" max="9215" width="11.33203125" style="1"/>
-    <col min="9216" max="9216" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8982" max="8982" width="4.36328125" style="1" customWidth="1"/>
+    <col min="8983" max="8983" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8984" max="9215" width="11.36328125" style="1"/>
+    <col min="9216" max="9216" width="15.1796875" style="1" customWidth="1"/>
     <col min="9217" max="9217" width="13" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9219" max="9220" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9221" max="9226" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9227" max="9228" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="5.1640625" style="1" customWidth="1"/>
-    <col min="9231" max="9231" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9233" max="9233" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9236" max="9236" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9219" max="9220" width="3.1796875" style="1" customWidth="1"/>
+    <col min="9221" max="9226" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9227" max="9228" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="5.1796875" style="1" customWidth="1"/>
+    <col min="9231" max="9231" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="3.6328125" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9236" max="9236" width="4.6328125" style="1" customWidth="1"/>
     <col min="9237" max="9237" width="5" style="1" customWidth="1"/>
-    <col min="9238" max="9238" width="4.33203125" style="1" customWidth="1"/>
-    <col min="9239" max="9239" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9240" max="9471" width="11.33203125" style="1"/>
-    <col min="9472" max="9472" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9238" max="9238" width="4.36328125" style="1" customWidth="1"/>
+    <col min="9239" max="9239" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9240" max="9471" width="11.36328125" style="1"/>
+    <col min="9472" max="9472" width="15.1796875" style="1" customWidth="1"/>
     <col min="9473" max="9473" width="13" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9475" max="9476" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9477" max="9482" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9483" max="9484" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="5.1640625" style="1" customWidth="1"/>
-    <col min="9487" max="9487" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9489" max="9489" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9492" max="9492" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9475" max="9476" width="3.1796875" style="1" customWidth="1"/>
+    <col min="9477" max="9482" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9483" max="9484" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="5.1796875" style="1" customWidth="1"/>
+    <col min="9487" max="9487" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="3.6328125" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9492" max="9492" width="4.6328125" style="1" customWidth="1"/>
     <col min="9493" max="9493" width="5" style="1" customWidth="1"/>
-    <col min="9494" max="9494" width="4.33203125" style="1" customWidth="1"/>
-    <col min="9495" max="9495" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9496" max="9727" width="11.33203125" style="1"/>
-    <col min="9728" max="9728" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9494" max="9494" width="4.36328125" style="1" customWidth="1"/>
+    <col min="9495" max="9495" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9496" max="9727" width="11.36328125" style="1"/>
+    <col min="9728" max="9728" width="15.1796875" style="1" customWidth="1"/>
     <col min="9729" max="9729" width="13" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9731" max="9732" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9733" max="9738" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9739" max="9740" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="5.1640625" style="1" customWidth="1"/>
-    <col min="9743" max="9743" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9745" max="9745" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9748" max="9748" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9731" max="9732" width="3.1796875" style="1" customWidth="1"/>
+    <col min="9733" max="9738" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9739" max="9740" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="5.1796875" style="1" customWidth="1"/>
+    <col min="9743" max="9743" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="3.6328125" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="4.6328125" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9748" max="9748" width="4.6328125" style="1" customWidth="1"/>
     <col min="9749" max="9749" width="5" style="1" customWidth="1"/>
-    <col min="9750" max="9750" width="4.33203125" style="1" customWidth="1"/>
-    <col min="9751" max="9751" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9752" max="9983" width="11.33203125" style="1"/>
-    <col min="9984" max="9984" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9750" max="9750" width="4.36328125" style="1" customWidth="1"/>
+    <col min="9751" max="9751" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9752" max="9983" width="11.36328125" style="1"/>
+    <col min="9984" max="9984" width="15.1796875" style="1" customWidth="1"/>
     <col min="9985" max="9985" width="13" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9987" max="9988" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9989" max="9994" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9995" max="9996" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="5.1640625" style="1" customWidth="1"/>
-    <col min="9999" max="9999" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10001" max="10001" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10004" max="10004" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9987" max="9988" width="3.1796875" style="1" customWidth="1"/>
+    <col min="9989" max="9994" width="10.36328125" style="1" customWidth="1"/>
+    <col min="9995" max="9996" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="6.6328125" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="5.1796875" style="1" customWidth="1"/>
+    <col min="9999" max="9999" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="3.6328125" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="6.36328125" style="1" customWidth="1"/>
+    <col min="10004" max="10004" width="4.6328125" style="1" customWidth="1"/>
     <col min="10005" max="10005" width="5" style="1" customWidth="1"/>
-    <col min="10006" max="10006" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10007" max="10007" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10008" max="10239" width="11.33203125" style="1"/>
-    <col min="10240" max="10240" width="15.1640625" style="1" customWidth="1"/>
+    <col min="10006" max="10006" width="4.36328125" style="1" customWidth="1"/>
+    <col min="10007" max="10007" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10008" max="10239" width="11.36328125" style="1"/>
+    <col min="10240" max="10240" width="15.1796875" style="1" customWidth="1"/>
     <col min="10241" max="10241" width="13" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10243" max="10244" width="3.1640625" style="1" customWidth="1"/>
-    <col min="10245" max="10250" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10251" max="10252" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="5.1640625" style="1" customWidth="1"/>
-    <col min="10255" max="10255" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10257" max="10257" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10260" max="10260" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10243" max="10244" width="3.1796875" style="1" customWidth="1"/>
+    <col min="10245" max="10250" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10251" max="10252" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="5.1796875" style="1" customWidth="1"/>
+    <col min="10255" max="10255" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="3.6328125" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="6.36328125" style="1" customWidth="1"/>
+    <col min="10260" max="10260" width="4.6328125" style="1" customWidth="1"/>
     <col min="10261" max="10261" width="5" style="1" customWidth="1"/>
-    <col min="10262" max="10262" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10263" max="10263" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10264" max="10495" width="11.33203125" style="1"/>
-    <col min="10496" max="10496" width="15.1640625" style="1" customWidth="1"/>
+    <col min="10262" max="10262" width="4.36328125" style="1" customWidth="1"/>
+    <col min="10263" max="10263" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10264" max="10495" width="11.36328125" style="1"/>
+    <col min="10496" max="10496" width="15.1796875" style="1" customWidth="1"/>
     <col min="10497" max="10497" width="13" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10499" max="10500" width="3.1640625" style="1" customWidth="1"/>
-    <col min="10501" max="10506" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10507" max="10508" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="5.1640625" style="1" customWidth="1"/>
-    <col min="10511" max="10511" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10513" max="10513" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10516" max="10516" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10499" max="10500" width="3.1796875" style="1" customWidth="1"/>
+    <col min="10501" max="10506" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10507" max="10508" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="5.1796875" style="1" customWidth="1"/>
+    <col min="10511" max="10511" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="3.6328125" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="6.36328125" style="1" customWidth="1"/>
+    <col min="10516" max="10516" width="4.6328125" style="1" customWidth="1"/>
     <col min="10517" max="10517" width="5" style="1" customWidth="1"/>
-    <col min="10518" max="10518" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10519" max="10519" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10520" max="10751" width="11.33203125" style="1"/>
-    <col min="10752" max="10752" width="15.1640625" style="1" customWidth="1"/>
+    <col min="10518" max="10518" width="4.36328125" style="1" customWidth="1"/>
+    <col min="10519" max="10519" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10520" max="10751" width="11.36328125" style="1"/>
+    <col min="10752" max="10752" width="15.1796875" style="1" customWidth="1"/>
     <col min="10753" max="10753" width="13" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10755" max="10756" width="3.1640625" style="1" customWidth="1"/>
-    <col min="10757" max="10762" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10763" max="10764" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="5.1640625" style="1" customWidth="1"/>
-    <col min="10767" max="10767" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10769" max="10769" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10772" max="10772" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10755" max="10756" width="3.1796875" style="1" customWidth="1"/>
+    <col min="10757" max="10762" width="10.36328125" style="1" customWidth="1"/>
+    <col min="10763" max="10764" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="5.1796875" style="1" customWidth="1"/>
+    <col min="10767" max="10767" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="3.6328125" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="6.6328125" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="6.36328125" style="1" customWidth="1"/>
+    <col min="10772" max="10772" width="4.6328125" style="1" customWidth="1"/>
     <col min="10773" max="10773" width="5" style="1" customWidth="1"/>
-    <col min="10774" max="10774" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10775" max="10775" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10776" max="11007" width="11.33203125" style="1"/>
-    <col min="11008" max="11008" width="15.1640625" style="1" customWidth="1"/>
+    <col min="10774" max="10774" width="4.36328125" style="1" customWidth="1"/>
+    <col min="10775" max="10775" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10776" max="11007" width="11.36328125" style="1"/>
+    <col min="11008" max="11008" width="15.1796875" style="1" customWidth="1"/>
     <col min="11009" max="11009" width="13" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11011" max="11012" width="3.1640625" style="1" customWidth="1"/>
-    <col min="11013" max="11018" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11019" max="11020" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="5.1640625" style="1" customWidth="1"/>
-    <col min="11023" max="11023" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11025" max="11025" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="6.33203125" style="1" customWidth="1"/>
-    <col min="11028" max="11028" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11011" max="11012" width="3.1796875" style="1" customWidth="1"/>
+    <col min="11013" max="11018" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11019" max="11020" width="14.36328125" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="5.1796875" style="1" customWidth="1"/>
+    <col min="11023" max="11023" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="6.36328125" style="1" customWidth="1"/>
+    <col min="11028" max="11028" width="4.6328125" style="1" customWidth="1"/>
     <col min="11029" max="11029" width="5" style="1" customWidth="1"/>
-    <col min="11030" max="11030" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11031" max="11031" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11032" max="11263" width="11.33203125" style="1"/>
-    <col min="11264" max="11264" width="15.1640625" style="1" customWidth="1"/>
+    <col min="11030" max="11030" width="4.36328125" style="1" customWidth="1"/>
+    <col min="11031" max="11031" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11032" max="11263" width="11.36328125" style="1"/>
+    <col min="11264" max="11264" width="15.1796875" style="1" customWidth="1"/>
     <col min="11265" max="11265" width="13" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11267" max="11268" width="3.1640625" style="1" customWidth="1"/>
-    <col min="11269" max="11274" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11275" max="11276" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="5.1640625" style="1" customWidth="1"/>
-    <col min="11279" max="11279" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11281" max="11281" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="6.33203125" style="1" customWidth="1"/>
-    <col min="11284" max="11284" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11267" max="11268" width="3.1796875" style="1" customWidth="1"/>
+    <col min="11269" max="11274" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11275" max="11276" width="14.36328125" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="5.1796875" style="1" customWidth="1"/>
+    <col min="11279" max="11279" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="6.36328125" style="1" customWidth="1"/>
+    <col min="11284" max="11284" width="4.6328125" style="1" customWidth="1"/>
     <col min="11285" max="11285" width="5" style="1" customWidth="1"/>
-    <col min="11286" max="11286" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11287" max="11287" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11288" max="11519" width="11.33203125" style="1"/>
-    <col min="11520" max="11520" width="15.1640625" style="1" customWidth="1"/>
+    <col min="11286" max="11286" width="4.36328125" style="1" customWidth="1"/>
+    <col min="11287" max="11287" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11288" max="11519" width="11.36328125" style="1"/>
+    <col min="11520" max="11520" width="15.1796875" style="1" customWidth="1"/>
     <col min="11521" max="11521" width="13" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11523" max="11524" width="3.1640625" style="1" customWidth="1"/>
-    <col min="11525" max="11530" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11531" max="11532" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="5.1640625" style="1" customWidth="1"/>
-    <col min="11535" max="11535" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11537" max="11537" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="6.33203125" style="1" customWidth="1"/>
-    <col min="11540" max="11540" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11523" max="11524" width="3.1796875" style="1" customWidth="1"/>
+    <col min="11525" max="11530" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11531" max="11532" width="14.36328125" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="5.1796875" style="1" customWidth="1"/>
+    <col min="11535" max="11535" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="6.36328125" style="1" customWidth="1"/>
+    <col min="11540" max="11540" width="4.6328125" style="1" customWidth="1"/>
     <col min="11541" max="11541" width="5" style="1" customWidth="1"/>
-    <col min="11542" max="11542" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11543" max="11543" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11544" max="11775" width="11.33203125" style="1"/>
-    <col min="11776" max="11776" width="15.1640625" style="1" customWidth="1"/>
+    <col min="11542" max="11542" width="4.36328125" style="1" customWidth="1"/>
+    <col min="11543" max="11543" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11544" max="11775" width="11.36328125" style="1"/>
+    <col min="11776" max="11776" width="15.1796875" style="1" customWidth="1"/>
     <col min="11777" max="11777" width="13" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11779" max="11780" width="3.1640625" style="1" customWidth="1"/>
-    <col min="11781" max="11786" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11787" max="11788" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="5.1640625" style="1" customWidth="1"/>
-    <col min="11791" max="11791" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11793" max="11793" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="6.33203125" style="1" customWidth="1"/>
-    <col min="11796" max="11796" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11779" max="11780" width="3.1796875" style="1" customWidth="1"/>
+    <col min="11781" max="11786" width="10.36328125" style="1" customWidth="1"/>
+    <col min="11787" max="11788" width="14.36328125" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="5.1796875" style="1" customWidth="1"/>
+    <col min="11791" max="11791" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="6.6328125" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="6.36328125" style="1" customWidth="1"/>
+    <col min="11796" max="11796" width="4.6328125" style="1" customWidth="1"/>
     <col min="11797" max="11797" width="5" style="1" customWidth="1"/>
-    <col min="11798" max="11798" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11799" max="11799" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11800" max="12031" width="11.33203125" style="1"/>
-    <col min="12032" max="12032" width="15.1640625" style="1" customWidth="1"/>
+    <col min="11798" max="11798" width="4.36328125" style="1" customWidth="1"/>
+    <col min="11799" max="11799" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11800" max="12031" width="11.36328125" style="1"/>
+    <col min="12032" max="12032" width="15.1796875" style="1" customWidth="1"/>
     <col min="12033" max="12033" width="13" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12035" max="12036" width="3.1640625" style="1" customWidth="1"/>
-    <col min="12037" max="12042" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12043" max="12044" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12047" max="12047" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12049" max="12049" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12052" max="12052" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12035" max="12036" width="3.1796875" style="1" customWidth="1"/>
+    <col min="12037" max="12042" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12043" max="12044" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="5.1796875" style="1" customWidth="1"/>
+    <col min="12047" max="12047" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="3.6328125" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="6.36328125" style="1" customWidth="1"/>
+    <col min="12052" max="12052" width="4.6328125" style="1" customWidth="1"/>
     <col min="12053" max="12053" width="5" style="1" customWidth="1"/>
-    <col min="12054" max="12054" width="4.33203125" style="1" customWidth="1"/>
-    <col min="12055" max="12055" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12056" max="12287" width="11.33203125" style="1"/>
-    <col min="12288" max="12288" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12054" max="12054" width="4.36328125" style="1" customWidth="1"/>
+    <col min="12055" max="12055" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12056" max="12287" width="11.36328125" style="1"/>
+    <col min="12288" max="12288" width="15.1796875" style="1" customWidth="1"/>
     <col min="12289" max="12289" width="13" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12291" max="12292" width="3.1640625" style="1" customWidth="1"/>
-    <col min="12293" max="12298" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12299" max="12300" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12303" max="12303" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12305" max="12305" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12308" max="12308" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12291" max="12292" width="3.1796875" style="1" customWidth="1"/>
+    <col min="12293" max="12298" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12299" max="12300" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="5.1796875" style="1" customWidth="1"/>
+    <col min="12303" max="12303" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="3.6328125" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="6.36328125" style="1" customWidth="1"/>
+    <col min="12308" max="12308" width="4.6328125" style="1" customWidth="1"/>
     <col min="12309" max="12309" width="5" style="1" customWidth="1"/>
-    <col min="12310" max="12310" width="4.33203125" style="1" customWidth="1"/>
-    <col min="12311" max="12311" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12312" max="12543" width="11.33203125" style="1"/>
-    <col min="12544" max="12544" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12310" max="12310" width="4.36328125" style="1" customWidth="1"/>
+    <col min="12311" max="12311" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12312" max="12543" width="11.36328125" style="1"/>
+    <col min="12544" max="12544" width="15.1796875" style="1" customWidth="1"/>
     <col min="12545" max="12545" width="13" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12547" max="12548" width="3.1640625" style="1" customWidth="1"/>
-    <col min="12549" max="12554" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12555" max="12556" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12559" max="12559" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12561" max="12561" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12564" max="12564" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12547" max="12548" width="3.1796875" style="1" customWidth="1"/>
+    <col min="12549" max="12554" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12555" max="12556" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="5.1796875" style="1" customWidth="1"/>
+    <col min="12559" max="12559" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="3.6328125" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="6.36328125" style="1" customWidth="1"/>
+    <col min="12564" max="12564" width="4.6328125" style="1" customWidth="1"/>
     <col min="12565" max="12565" width="5" style="1" customWidth="1"/>
-    <col min="12566" max="12566" width="4.33203125" style="1" customWidth="1"/>
-    <col min="12567" max="12567" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12568" max="12799" width="11.33203125" style="1"/>
-    <col min="12800" max="12800" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12566" max="12566" width="4.36328125" style="1" customWidth="1"/>
+    <col min="12567" max="12567" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12568" max="12799" width="11.36328125" style="1"/>
+    <col min="12800" max="12800" width="15.1796875" style="1" customWidth="1"/>
     <col min="12801" max="12801" width="13" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12803" max="12804" width="3.1640625" style="1" customWidth="1"/>
-    <col min="12805" max="12810" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12811" max="12812" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12815" max="12815" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12817" max="12817" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12820" max="12820" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12803" max="12804" width="3.1796875" style="1" customWidth="1"/>
+    <col min="12805" max="12810" width="10.36328125" style="1" customWidth="1"/>
+    <col min="12811" max="12812" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="5.1796875" style="1" customWidth="1"/>
+    <col min="12815" max="12815" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="3.6328125" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="6.36328125" style="1" customWidth="1"/>
+    <col min="12820" max="12820" width="4.6328125" style="1" customWidth="1"/>
     <col min="12821" max="12821" width="5" style="1" customWidth="1"/>
-    <col min="12822" max="12822" width="4.33203125" style="1" customWidth="1"/>
-    <col min="12823" max="12823" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12824" max="13055" width="11.33203125" style="1"/>
-    <col min="13056" max="13056" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12822" max="12822" width="4.36328125" style="1" customWidth="1"/>
+    <col min="12823" max="12823" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12824" max="13055" width="11.36328125" style="1"/>
+    <col min="13056" max="13056" width="15.1796875" style="1" customWidth="1"/>
     <col min="13057" max="13057" width="13" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13059" max="13060" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13061" max="13066" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13067" max="13068" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="5.1640625" style="1" customWidth="1"/>
-    <col min="13071" max="13071" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13073" max="13073" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="6.33203125" style="1" customWidth="1"/>
-    <col min="13076" max="13076" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13059" max="13060" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13061" max="13066" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13067" max="13068" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="5.1796875" style="1" customWidth="1"/>
+    <col min="13071" max="13071" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="6.36328125" style="1" customWidth="1"/>
+    <col min="13076" max="13076" width="4.6328125" style="1" customWidth="1"/>
     <col min="13077" max="13077" width="5" style="1" customWidth="1"/>
-    <col min="13078" max="13078" width="4.33203125" style="1" customWidth="1"/>
-    <col min="13079" max="13079" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13080" max="13311" width="11.33203125" style="1"/>
-    <col min="13312" max="13312" width="15.1640625" style="1" customWidth="1"/>
+    <col min="13078" max="13078" width="4.36328125" style="1" customWidth="1"/>
+    <col min="13079" max="13079" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13080" max="13311" width="11.36328125" style="1"/>
+    <col min="13312" max="13312" width="15.1796875" style="1" customWidth="1"/>
     <col min="13313" max="13313" width="13" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13315" max="13316" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13317" max="13322" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13323" max="13324" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="5.1640625" style="1" customWidth="1"/>
-    <col min="13327" max="13327" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13329" max="13329" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="6.33203125" style="1" customWidth="1"/>
-    <col min="13332" max="13332" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13315" max="13316" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13317" max="13322" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13323" max="13324" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="5.1796875" style="1" customWidth="1"/>
+    <col min="13327" max="13327" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="6.36328125" style="1" customWidth="1"/>
+    <col min="13332" max="13332" width="4.6328125" style="1" customWidth="1"/>
     <col min="13333" max="13333" width="5" style="1" customWidth="1"/>
-    <col min="13334" max="13334" width="4.33203125" style="1" customWidth="1"/>
-    <col min="13335" max="13335" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13336" max="13567" width="11.33203125" style="1"/>
-    <col min="13568" max="13568" width="15.1640625" style="1" customWidth="1"/>
+    <col min="13334" max="13334" width="4.36328125" style="1" customWidth="1"/>
+    <col min="13335" max="13335" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13336" max="13567" width="11.36328125" style="1"/>
+    <col min="13568" max="13568" width="15.1796875" style="1" customWidth="1"/>
     <col min="13569" max="13569" width="13" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13571" max="13572" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13573" max="13578" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13579" max="13580" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="5.1640625" style="1" customWidth="1"/>
-    <col min="13583" max="13583" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13585" max="13585" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="6.33203125" style="1" customWidth="1"/>
-    <col min="13588" max="13588" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13571" max="13572" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13573" max="13578" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13579" max="13580" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="5.1796875" style="1" customWidth="1"/>
+    <col min="13583" max="13583" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="6.36328125" style="1" customWidth="1"/>
+    <col min="13588" max="13588" width="4.6328125" style="1" customWidth="1"/>
     <col min="13589" max="13589" width="5" style="1" customWidth="1"/>
-    <col min="13590" max="13590" width="4.33203125" style="1" customWidth="1"/>
-    <col min="13591" max="13591" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13592" max="13823" width="11.33203125" style="1"/>
-    <col min="13824" max="13824" width="15.1640625" style="1" customWidth="1"/>
+    <col min="13590" max="13590" width="4.36328125" style="1" customWidth="1"/>
+    <col min="13591" max="13591" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13592" max="13823" width="11.36328125" style="1"/>
+    <col min="13824" max="13824" width="15.1796875" style="1" customWidth="1"/>
     <col min="13825" max="13825" width="13" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13827" max="13828" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13829" max="13834" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13835" max="13836" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="5.1640625" style="1" customWidth="1"/>
-    <col min="13839" max="13839" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13841" max="13841" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="6.33203125" style="1" customWidth="1"/>
-    <col min="13844" max="13844" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13827" max="13828" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13829" max="13834" width="10.36328125" style="1" customWidth="1"/>
+    <col min="13835" max="13836" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="5.1796875" style="1" customWidth="1"/>
+    <col min="13839" max="13839" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="6.36328125" style="1" customWidth="1"/>
+    <col min="13844" max="13844" width="4.6328125" style="1" customWidth="1"/>
     <col min="13845" max="13845" width="5" style="1" customWidth="1"/>
-    <col min="13846" max="13846" width="4.33203125" style="1" customWidth="1"/>
-    <col min="13847" max="13847" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13848" max="14079" width="11.33203125" style="1"/>
-    <col min="14080" max="14080" width="15.1640625" style="1" customWidth="1"/>
+    <col min="13846" max="13846" width="4.36328125" style="1" customWidth="1"/>
+    <col min="13847" max="13847" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13848" max="14079" width="11.36328125" style="1"/>
+    <col min="14080" max="14080" width="15.1796875" style="1" customWidth="1"/>
     <col min="14081" max="14081" width="13" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14083" max="14084" width="3.1640625" style="1" customWidth="1"/>
-    <col min="14085" max="14090" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14091" max="14092" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="5.1640625" style="1" customWidth="1"/>
-    <col min="14095" max="14095" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14097" max="14097" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14100" max="14100" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14083" max="14084" width="3.1796875" style="1" customWidth="1"/>
+    <col min="14085" max="14090" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14091" max="14092" width="14.36328125" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="5.1796875" style="1" customWidth="1"/>
+    <col min="14095" max="14095" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="3.6328125" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14100" max="14100" width="4.6328125" style="1" customWidth="1"/>
     <col min="14101" max="14101" width="5" style="1" customWidth="1"/>
-    <col min="14102" max="14102" width="4.33203125" style="1" customWidth="1"/>
-    <col min="14103" max="14103" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14104" max="14335" width="11.33203125" style="1"/>
-    <col min="14336" max="14336" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14102" max="14102" width="4.36328125" style="1" customWidth="1"/>
+    <col min="14103" max="14103" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14104" max="14335" width="11.36328125" style="1"/>
+    <col min="14336" max="14336" width="15.1796875" style="1" customWidth="1"/>
     <col min="14337" max="14337" width="13" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14339" max="14340" width="3.1640625" style="1" customWidth="1"/>
-    <col min="14341" max="14346" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14347" max="14348" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="5.1640625" style="1" customWidth="1"/>
-    <col min="14351" max="14351" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14353" max="14353" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14356" max="14356" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14339" max="14340" width="3.1796875" style="1" customWidth="1"/>
+    <col min="14341" max="14346" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14347" max="14348" width="14.36328125" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="5.1796875" style="1" customWidth="1"/>
+    <col min="14351" max="14351" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="3.6328125" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14356" max="14356" width="4.6328125" style="1" customWidth="1"/>
     <col min="14357" max="14357" width="5" style="1" customWidth="1"/>
-    <col min="14358" max="14358" width="4.33203125" style="1" customWidth="1"/>
-    <col min="14359" max="14359" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14360" max="14591" width="11.33203125" style="1"/>
-    <col min="14592" max="14592" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14358" max="14358" width="4.36328125" style="1" customWidth="1"/>
+    <col min="14359" max="14359" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14360" max="14591" width="11.36328125" style="1"/>
+    <col min="14592" max="14592" width="15.1796875" style="1" customWidth="1"/>
     <col min="14593" max="14593" width="13" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14595" max="14596" width="3.1640625" style="1" customWidth="1"/>
-    <col min="14597" max="14602" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14603" max="14604" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="5.1640625" style="1" customWidth="1"/>
-    <col min="14607" max="14607" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14609" max="14609" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14612" max="14612" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14595" max="14596" width="3.1796875" style="1" customWidth="1"/>
+    <col min="14597" max="14602" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14603" max="14604" width="14.36328125" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="5.1796875" style="1" customWidth="1"/>
+    <col min="14607" max="14607" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="3.6328125" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14612" max="14612" width="4.6328125" style="1" customWidth="1"/>
     <col min="14613" max="14613" width="5" style="1" customWidth="1"/>
-    <col min="14614" max="14614" width="4.33203125" style="1" customWidth="1"/>
-    <col min="14615" max="14615" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14616" max="14847" width="11.33203125" style="1"/>
-    <col min="14848" max="14848" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14614" max="14614" width="4.36328125" style="1" customWidth="1"/>
+    <col min="14615" max="14615" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14616" max="14847" width="11.36328125" style="1"/>
+    <col min="14848" max="14848" width="15.1796875" style="1" customWidth="1"/>
     <col min="14849" max="14849" width="13" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14851" max="14852" width="3.1640625" style="1" customWidth="1"/>
-    <col min="14853" max="14858" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14859" max="14860" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="5.1640625" style="1" customWidth="1"/>
-    <col min="14863" max="14863" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14865" max="14865" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14868" max="14868" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14851" max="14852" width="3.1796875" style="1" customWidth="1"/>
+    <col min="14853" max="14858" width="10.36328125" style="1" customWidth="1"/>
+    <col min="14859" max="14860" width="14.36328125" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="5.1796875" style="1" customWidth="1"/>
+    <col min="14863" max="14863" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="3.6328125" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="4.6328125" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14868" max="14868" width="4.6328125" style="1" customWidth="1"/>
     <col min="14869" max="14869" width="5" style="1" customWidth="1"/>
-    <col min="14870" max="14870" width="4.33203125" style="1" customWidth="1"/>
-    <col min="14871" max="14871" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14872" max="15103" width="11.33203125" style="1"/>
-    <col min="15104" max="15104" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14870" max="14870" width="4.36328125" style="1" customWidth="1"/>
+    <col min="14871" max="14871" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14872" max="15103" width="11.36328125" style="1"/>
+    <col min="15104" max="15104" width="15.1796875" style="1" customWidth="1"/>
     <col min="15105" max="15105" width="13" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15107" max="15108" width="3.1640625" style="1" customWidth="1"/>
-    <col min="15109" max="15114" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15115" max="15116" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="5.1640625" style="1" customWidth="1"/>
-    <col min="15119" max="15119" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15121" max="15121" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="6.33203125" style="1" customWidth="1"/>
-    <col min="15124" max="15124" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15107" max="15108" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15109" max="15114" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15115" max="15116" width="14.36328125" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="5.1796875" style="1" customWidth="1"/>
+    <col min="15119" max="15119" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="6.36328125" style="1" customWidth="1"/>
+    <col min="15124" max="15124" width="4.6328125" style="1" customWidth="1"/>
     <col min="15125" max="15125" width="5" style="1" customWidth="1"/>
-    <col min="15126" max="15126" width="4.33203125" style="1" customWidth="1"/>
-    <col min="15127" max="15127" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15128" max="15359" width="11.33203125" style="1"/>
-    <col min="15360" max="15360" width="15.1640625" style="1" customWidth="1"/>
+    <col min="15126" max="15126" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15127" max="15127" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15128" max="15359" width="11.36328125" style="1"/>
+    <col min="15360" max="15360" width="15.1796875" style="1" customWidth="1"/>
     <col min="15361" max="15361" width="13" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15363" max="15364" width="3.1640625" style="1" customWidth="1"/>
-    <col min="15365" max="15370" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15371" max="15372" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="5.1640625" style="1" customWidth="1"/>
-    <col min="15375" max="15375" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15377" max="15377" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="6.33203125" style="1" customWidth="1"/>
-    <col min="15380" max="15380" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15363" max="15364" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15365" max="15370" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15371" max="15372" width="14.36328125" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="5.1796875" style="1" customWidth="1"/>
+    <col min="15375" max="15375" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="6.36328125" style="1" customWidth="1"/>
+    <col min="15380" max="15380" width="4.6328125" style="1" customWidth="1"/>
     <col min="15381" max="15381" width="5" style="1" customWidth="1"/>
-    <col min="15382" max="15382" width="4.33203125" style="1" customWidth="1"/>
-    <col min="15383" max="15383" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15384" max="15615" width="11.33203125" style="1"/>
-    <col min="15616" max="15616" width="15.1640625" style="1" customWidth="1"/>
+    <col min="15382" max="15382" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15383" max="15383" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15384" max="15615" width="11.36328125" style="1"/>
+    <col min="15616" max="15616" width="15.1796875" style="1" customWidth="1"/>
     <col min="15617" max="15617" width="13" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15619" max="15620" width="3.1640625" style="1" customWidth="1"/>
-    <col min="15621" max="15626" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15627" max="15628" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="5.1640625" style="1" customWidth="1"/>
-    <col min="15631" max="15631" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15633" max="15633" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="6.33203125" style="1" customWidth="1"/>
-    <col min="15636" max="15636" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15619" max="15620" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15621" max="15626" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15627" max="15628" width="14.36328125" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="5.1796875" style="1" customWidth="1"/>
+    <col min="15631" max="15631" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="6.36328125" style="1" customWidth="1"/>
+    <col min="15636" max="15636" width="4.6328125" style="1" customWidth="1"/>
     <col min="15637" max="15637" width="5" style="1" customWidth="1"/>
-    <col min="15638" max="15638" width="4.33203125" style="1" customWidth="1"/>
-    <col min="15639" max="15639" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15640" max="15871" width="11.33203125" style="1"/>
-    <col min="15872" max="15872" width="15.1640625" style="1" customWidth="1"/>
+    <col min="15638" max="15638" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15639" max="15639" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15640" max="15871" width="11.36328125" style="1"/>
+    <col min="15872" max="15872" width="15.1796875" style="1" customWidth="1"/>
     <col min="15873" max="15873" width="13" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15875" max="15876" width="3.1640625" style="1" customWidth="1"/>
-    <col min="15877" max="15882" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15883" max="15884" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="5.1640625" style="1" customWidth="1"/>
-    <col min="15887" max="15887" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15889" max="15889" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="6.33203125" style="1" customWidth="1"/>
-    <col min="15892" max="15892" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15875" max="15876" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15877" max="15882" width="10.36328125" style="1" customWidth="1"/>
+    <col min="15883" max="15884" width="14.36328125" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="5.1796875" style="1" customWidth="1"/>
+    <col min="15887" max="15887" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="6.6328125" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="6.36328125" style="1" customWidth="1"/>
+    <col min="15892" max="15892" width="4.6328125" style="1" customWidth="1"/>
     <col min="15893" max="15893" width="5" style="1" customWidth="1"/>
-    <col min="15894" max="15894" width="4.33203125" style="1" customWidth="1"/>
-    <col min="15895" max="15895" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15896" max="16127" width="11.33203125" style="1"/>
-    <col min="16128" max="16128" width="15.1640625" style="1" customWidth="1"/>
+    <col min="15894" max="15894" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15895" max="15895" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15896" max="16127" width="11.36328125" style="1"/>
+    <col min="16128" max="16128" width="15.1796875" style="1" customWidth="1"/>
     <col min="16129" max="16129" width="13" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.33203125" style="1" customWidth="1"/>
-    <col min="16131" max="16132" width="3.1640625" style="1" customWidth="1"/>
-    <col min="16133" max="16138" width="10.33203125" style="1" customWidth="1"/>
-    <col min="16139" max="16140" width="14.33203125" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="5.1640625" style="1" customWidth="1"/>
-    <col min="16143" max="16143" width="4.6640625" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="3.6640625" style="1" customWidth="1"/>
-    <col min="16145" max="16145" width="4.6640625" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="6.33203125" style="1" customWidth="1"/>
-    <col min="16148" max="16148" width="4.6640625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.36328125" style="1" customWidth="1"/>
+    <col min="16131" max="16132" width="3.1796875" style="1" customWidth="1"/>
+    <col min="16133" max="16138" width="10.36328125" style="1" customWidth="1"/>
+    <col min="16139" max="16140" width="14.36328125" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="6.6328125" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="5.1796875" style="1" customWidth="1"/>
+    <col min="16143" max="16143" width="4.6328125" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="3.6328125" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="4.6328125" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="6.6328125" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="6.36328125" style="1" customWidth="1"/>
+    <col min="16148" max="16148" width="4.6328125" style="1" customWidth="1"/>
     <col min="16149" max="16149" width="5" style="1" customWidth="1"/>
-    <col min="16150" max="16150" width="4.33203125" style="1" customWidth="1"/>
-    <col min="16151" max="16151" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16152" max="16384" width="11.33203125" style="1"/>
+    <col min="16150" max="16150" width="4.36328125" style="1" customWidth="1"/>
+    <col min="16151" max="16151" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16152" max="16384" width="11.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="35.25" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="185"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="25"/>
@@ -6192,10 +6192,10 @@
       <c r="AD1" s="27"/>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="174"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
@@ -6224,34 +6224,34 @@
       <c r="AD2" s="29"/>
     </row>
     <row r="3" spans="1:30" ht="42" customHeight="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="232" t="s">
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="233"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="229" t="s">
+      <c r="I3" s="212"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="230"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="226" t="s">
+      <c r="L3" s="209"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="30"/>
       <c r="S3" s="24"/>
@@ -6268,55 +6268,55 @@
       <c r="AD3" s="29"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="235" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="207" t="s">
+      <c r="F4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="220" t="s">
+      <c r="H4" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="188" t="s">
+      <c r="I4" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="222" t="s">
+      <c r="K4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="190" t="s">
+      <c r="L4" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="194" t="s">
+      <c r="M4" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="224" t="s">
+      <c r="N4" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="196" t="s">
+      <c r="O4" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="186" t="s">
+      <c r="P4" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="213" t="s">
+      <c r="Q4" s="192" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="30"/>
@@ -6334,25 +6334,25 @@
       <c r="AD4" s="29"/>
     </row>
     <row r="5" spans="1:30" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="10">
         <v>45779</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="214"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="193"/>
       <c r="R5" s="30"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
@@ -6449,9 +6449,7 @@
       <c r="F7" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="150" t="s">
-        <v>44</v>
-      </c>
+      <c r="G7" s="150"/>
       <c r="H7" s="149" t="s">
         <v>42</v>
       </c>
@@ -6492,10 +6490,10 @@
       <c r="AD7" s="33"/>
     </row>
     <row r="8" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="258">
+      <c r="B8" s="178">
         <v>37460</v>
       </c>
       <c r="C8" s="57">
@@ -6511,7 +6509,7 @@
       <c r="F8" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="261" t="s">
+      <c r="G8" s="181" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="149"/>
@@ -6546,10 +6544,10 @@
       <c r="AD8" s="29"/>
     </row>
     <row r="9" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="260" t="s">
+      <c r="A9" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="258">
+      <c r="B9" s="178">
         <v>38296</v>
       </c>
       <c r="C9" s="65">
@@ -6562,10 +6560,10 @@
       <c r="E9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="261" t="s">
+      <c r="F9" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="261" t="s">
+      <c r="G9" s="181" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="68"/>
@@ -6600,10 +6598,10 @@
       <c r="AD9" s="29"/>
     </row>
     <row r="10" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="260" t="s">
+      <c r="A10" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="258">
+      <c r="B10" s="178">
         <v>37695</v>
       </c>
       <c r="C10" s="65">
@@ -6619,10 +6617,10 @@
       <c r="H10" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="262" t="s">
+      <c r="I10" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="262" t="s">
+      <c r="J10" s="182" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="70"/>
@@ -6654,10 +6652,10 @@
       <c r="AD10" s="29"/>
     </row>
     <row r="11" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="258">
+      <c r="B11" s="178">
         <v>37509</v>
       </c>
       <c r="C11" s="65">
@@ -6673,10 +6671,10 @@
       <c r="H11" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="262" t="s">
+      <c r="I11" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="262" t="s">
+      <c r="J11" s="182" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="70"/>
@@ -6708,10 +6706,10 @@
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A12" s="260" t="s">
+      <c r="A12" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="258">
+      <c r="B12" s="178">
         <v>38504</v>
       </c>
       <c r="C12" s="65">
@@ -6730,10 +6728,10 @@
       <c r="K12" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="263" t="s">
+      <c r="L12" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="264" t="s">
+      <c r="M12" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N12" s="149" t="s">
@@ -6762,10 +6760,10 @@
       <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="260" t="s">
+      <c r="A13" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="258">
+      <c r="B13" s="178">
         <v>38401</v>
       </c>
       <c r="C13" s="65">
@@ -6784,10 +6782,10 @@
       <c r="K13" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="263" t="s">
+      <c r="L13" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="264" t="s">
+      <c r="M13" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="149" t="s">
@@ -6816,10 +6814,10 @@
       <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="260" t="s">
+      <c r="A14" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="258">
+      <c r="B14" s="178">
         <v>38330</v>
       </c>
       <c r="C14" s="65">
@@ -6838,10 +6836,10 @@
       <c r="K14" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="263" t="s">
+      <c r="L14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="264" t="s">
+      <c r="M14" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N14" s="72"/>
@@ -6866,10 +6864,10 @@
       <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="260" t="s">
+      <c r="A15" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="258">
+      <c r="B15" s="178">
         <v>37921</v>
       </c>
       <c r="C15" s="65">
@@ -6888,10 +6886,10 @@
       <c r="K15" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="263" t="s">
+      <c r="L15" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="264" t="s">
+      <c r="M15" s="184" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="72"/>
@@ -8435,7 +8433,7 @@
       <c r="AC55" s="24"/>
       <c r="AD55" s="29"/>
     </row>
-    <row r="56" spans="1:30" ht="27" thickBot="1">
+    <row r="56" spans="1:30" ht="26.5" thickBot="1">
       <c r="A56" s="136"/>
       <c r="B56" s="137"/>
       <c r="C56" s="138"/>
@@ -8450,10 +8448,10 @@
       <c r="L56" s="140"/>
       <c r="M56" s="140"/>
       <c r="N56" s="139"/>
-      <c r="O56" s="211" t="s">
+      <c r="O56" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="P56" s="212"/>
+      <c r="P56" s="191"/>
       <c r="Q56" s="170">
         <f>SUM(Q8:Q55)</f>
         <v>92</v>
@@ -10318,16 +10316,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="I4:I5"/>
@@ -10342,6 +10330,16 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Diese Spalte bitte nicht ausfüllen" prompt="Diese Spalte bitte nicht ausfüllen" sqref="C6:C55" xr:uid="{31B8AB7E-14F6-4C46-925A-C2EA34D6270C}">
@@ -10382,43 +10380,43 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="33.5" customHeight="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
@@ -10489,26 +10487,26 @@
       <c r="AP2" s="11"/>
     </row>
     <row r="3" spans="1:42" ht="52.5" customHeight="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
       <c r="S3" s="123"/>
       <c r="T3" s="121"/>
       <c r="U3" s="121"/>
@@ -10516,20 +10514,20 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="238"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="245"/>
+      <c r="AD3" s="245"/>
+      <c r="AE3" s="245"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="245"/>
+      <c r="AH3" s="245"/>
+      <c r="AI3" s="245"/>
+      <c r="AJ3" s="245"/>
+      <c r="AK3" s="245"/>
+      <c r="AL3" s="245"/>
+      <c r="AM3" s="245"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="11"/>
       <c r="AP3" s="11"/>
@@ -10539,26 +10537,26 @@
       <c r="B4" s="165"/>
       <c r="C4" s="166"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="250" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="252" t="s">
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="253"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="260"/>
       <c r="S4" s="123"/>
       <c r="T4" s="121"/>
       <c r="U4" s="121"/>
@@ -10584,17 +10582,17 @@
       <c r="AO4" s="11"/>
       <c r="AP4" s="11"/>
     </row>
-    <row r="5" spans="1:42" ht="16">
-      <c r="A5" s="243" t="s">
+    <row r="5" spans="1:42" ht="15.5">
+      <c r="A5" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="252" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="245" t="s">
+      <c r="D5" s="252" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="176" t="s">
@@ -10615,22 +10613,22 @@
       <c r="J5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="246" t="s">
+      <c r="K5" s="253" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="247"/>
-      <c r="M5" s="248" t="s">
+      <c r="L5" s="254"/>
+      <c r="M5" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="248"/>
-      <c r="O5" s="235" t="s">
+      <c r="N5" s="255"/>
+      <c r="O5" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="236" t="s">
+      <c r="P5" s="242"/>
+      <c r="Q5" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="237"/>
+      <c r="R5" s="244"/>
       <c r="S5" s="122"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -10656,13 +10654,13 @@
       <c r="AO5" s="11"/>
       <c r="AP5" s="11"/>
     </row>
-    <row r="6" spans="1:42" ht="17" thickBot="1">
-      <c r="A6" s="244"/>
-      <c r="B6" s="244"/>
+    <row r="6" spans="1:42" ht="16" thickBot="1">
+      <c r="A6" s="251"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="53">
         <v>45779</v>
       </c>
-      <c r="D6" s="244"/>
+      <c r="D6" s="251"/>
       <c r="E6" s="80" t="s">
         <v>62</v>
       </c>
@@ -10730,7 +10728,7 @@
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
     </row>
-    <row r="7" spans="1:42" s="56" customFormat="1" ht="17" thickBot="1">
+    <row r="7" spans="1:42" s="56" customFormat="1" ht="16" thickBot="1">
       <c r="A7" s="151" t="s">
         <v>37</v>
       </c>
@@ -10793,7 +10791,7 @@
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
     </row>
-    <row r="8" spans="1:42" ht="16">
+    <row r="8" spans="1:42" ht="15.5">
       <c r="A8" s="5"/>
       <c r="B8" s="8"/>
       <c r="C8" s="54" t="e">
@@ -10840,7 +10838,7 @@
       <c r="AO8" s="11"/>
       <c r="AP8" s="11"/>
     </row>
-    <row r="9" spans="1:42" ht="16">
+    <row r="9" spans="1:42" ht="15.5">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="54" t="e">
@@ -10887,7 +10885,7 @@
       <c r="AO9" s="11"/>
       <c r="AP9" s="11"/>
     </row>
-    <row r="10" spans="1:42" ht="16">
+    <row r="10" spans="1:42" ht="15.5">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="54" t="e">
@@ -10934,7 +10932,7 @@
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
     </row>
-    <row r="11" spans="1:42" ht="16">
+    <row r="11" spans="1:42" ht="15.5">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="54" t="e">
@@ -10957,7 +10955,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:42" ht="16">
+    <row r="12" spans="1:42" ht="15.5">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="54" t="e">
@@ -10980,7 +10978,7 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:42" ht="16">
+    <row r="13" spans="1:42" ht="15.5">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="54" t="e">
@@ -11003,7 +11001,7 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:42" ht="16">
+    <row r="14" spans="1:42" ht="15.5">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="54" t="e">
@@ -11026,7 +11024,7 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
     </row>
-    <row r="15" spans="1:42" ht="16">
+    <row r="15" spans="1:42" ht="15.5">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="54" t="e">
@@ -11049,7 +11047,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:42" ht="16">
+    <row r="16" spans="1:42" ht="15.5">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="C16" s="54" t="e">
@@ -11072,7 +11070,7 @@
       <c r="Q16" s="51"/>
       <c r="R16" s="51"/>
     </row>
-    <row r="17" spans="1:18" ht="16">
+    <row r="17" spans="1:18" ht="15.5">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
       <c r="C17" s="54" t="e">
@@ -11095,7 +11093,7 @@
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
     </row>
-    <row r="18" spans="1:18" ht="16">
+    <row r="18" spans="1:18" ht="15.5">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="54" t="e">
@@ -11118,7 +11116,7 @@
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
     </row>
-    <row r="19" spans="1:18" ht="16">
+    <row r="19" spans="1:18" ht="15.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="54" t="e">
@@ -11141,7 +11139,7 @@
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
     </row>
-    <row r="20" spans="1:18" ht="16">
+    <row r="20" spans="1:18" ht="15.5">
       <c r="A20" s="5"/>
       <c r="B20" s="8"/>
       <c r="C20" s="54" t="e">
@@ -11164,7 +11162,7 @@
       <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
     </row>
-    <row r="21" spans="1:18" ht="16">
+    <row r="21" spans="1:18" ht="15.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8"/>
       <c r="C21" s="54" t="e">
@@ -11187,7 +11185,7 @@
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
     </row>
-    <row r="22" spans="1:18" ht="16">
+    <row r="22" spans="1:18" ht="15.5">
       <c r="A22" s="6"/>
       <c r="B22" s="9"/>
       <c r="C22" s="54" t="e">
@@ -11210,7 +11208,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
     </row>
-    <row r="23" spans="1:18" ht="16">
+    <row r="23" spans="1:18" ht="15.5">
       <c r="A23" s="6"/>
       <c r="B23" s="9"/>
       <c r="C23" s="54" t="e">
@@ -11271,11 +11269,11 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="10" max="11" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -11353,12 +11351,12 @@
     <row r="4" spans="1:22" ht="31">
       <c r="A4" s="111"/>
       <c r="B4" s="112"/>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="257"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="11"/>
@@ -11380,10 +11378,10 @@
       <c r="A5" s="117"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -11410,10 +11408,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="103"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="254" t="s">
+      <c r="D7" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="255"/>
+      <c r="E7" s="262"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -11432,7 +11430,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1">
+    <row r="8" spans="1:22" ht="16" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -11456,7 +11454,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="17" thickBot="1">
+    <row r="9" spans="1:22" ht="16" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -11485,7 +11483,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="17" thickBot="1">
+    <row r="10" spans="1:22" ht="16" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
@@ -11514,7 +11512,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="17" thickBot="1">
+    <row r="11" spans="1:22" ht="16" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -11543,7 +11541,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="17" thickBot="1">
+    <row r="12" spans="1:22" ht="16" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="113"/>
@@ -11567,7 +11565,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="17" thickBot="1">
+    <row r="13" spans="1:22" ht="16" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="16"/>
@@ -11596,7 +11594,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1">
+    <row r="14" spans="1:22" ht="16" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
@@ -11648,7 +11646,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="16">
+    <row r="16" spans="1:22" ht="15.5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="14"/>
@@ -11674,7 +11672,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="16">
+    <row r="17" spans="1:22" ht="15.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="14"/>
@@ -11698,7 +11696,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="16">
+    <row r="18" spans="1:22" ht="15.5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="14"/>
@@ -11722,7 +11720,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="16">
+    <row r="19" spans="1:22" ht="15.5">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="98"/>
